--- a/data/获取数据/政策导向指标/非国企20年数据/301378.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301378.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="180">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>通达海</t>
   </si>
   <si>
-    <t>301378</t>
-  </si>
-  <si>
     <t>2023-03-20</t>
   </si>
   <si>
@@ -518,6 +542,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-03-19</t>
+  </si>
+  <si>
+    <t>郑建国</t>
+  </si>
+  <si>
+    <t>郑建国;南京置益企业管理中心(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -875,13 +911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,16 +957,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301378</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>72.67</v>
@@ -963,3650 +1026,3638 @@
         <v>60.98</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301378</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3">
+        <v>1827</v>
+      </c>
+      <c r="S3">
+        <v>39.72</v>
+      </c>
+      <c r="T3" t="s">
+        <v>178</v>
+      </c>
+      <c r="U3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3">
+        <v>66.61910520231024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>66.68000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>63.27</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>67.98999999999999</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>62.67</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>50921</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>495697349</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>7.22</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-14.14</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-10.42</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>44.28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301378</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>61.33</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>66.67</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>69.05</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>47523</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>472197073</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>12.72</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>5.37</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>3.4</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>41.32</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301378</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>65.25</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>67.97</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>72.67</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>64.87</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>44420</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>468150856</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>11.7</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>1.95</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>1.3</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>38.63</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301378</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>66.06999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>75.73</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>78</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>66.06999999999999</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>46600</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>517373611</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>17.55</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>11.42</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>7.76</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>40.52</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>76.73999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>76.81</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>83.33</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>76.59</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>49051</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>589057565</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>8.9</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>1.43</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>1.08</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>42.65</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301378</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>74</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>78.72</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>79.17</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>72.87</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>34954</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>396623688</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>8.199999999999999</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>2.49</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>1.91</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>30.39</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>76</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>72.88</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>76.76000000000001</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>72.09</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>26752</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>300167020</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>5.93</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-7.42</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-5.84</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>23.26</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>73.33</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>70.06999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>73.75</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>68.19</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>24586</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>261739833</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>7.63</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-3.86</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-2.81</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>21.38</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301378</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>71.61</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>74.65000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>76</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>71.61</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>27737</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>311032889</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>6.27</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>6.54</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>4.58</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>24.12</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>72.92</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>81.56999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>82.40000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>72.73</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>34696</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>413679030</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>12.95</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>9.27</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>6.92</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>30.17</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>81.97</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>77.33</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>84.5</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>76.83</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>25626</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>308304707</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>9.4</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-5.2</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-4.24</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>22.28</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301378</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>75.37</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>76.17</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>77.66</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>73.7</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>20101</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>230047554</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>5.12</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>-1.5</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-1.16</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>17.48</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301378</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>75.67</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>76.87</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>79.06999999999999</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>74.37</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>19141</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>222725352</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>6.17</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.92</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.7</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>16.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>76.41</v>
-      </c>
-      <c r="E16">
-        <v>73.76000000000001</v>
-      </c>
-      <c r="F16">
-        <v>80.34999999999999</v>
-      </c>
-      <c r="G16">
-        <v>73.73</v>
-      </c>
-      <c r="H16">
-        <v>24104</v>
-      </c>
-      <c r="I16">
-        <v>278774753</v>
-      </c>
-      <c r="J16">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="K16">
-        <v>-4.05</v>
-      </c>
-      <c r="L16">
-        <v>-3.11</v>
-      </c>
-      <c r="M16">
-        <v>20.96</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301378</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>72.17</v>
+        <v>76.41</v>
       </c>
       <c r="E17">
-        <v>71.33</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="F17">
-        <v>74.34999999999999</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="G17">
-        <v>69.25</v>
+        <v>73.73</v>
       </c>
       <c r="H17">
-        <v>19978</v>
+        <v>24104</v>
       </c>
       <c r="I17">
-        <v>216053010</v>
+        <v>278774753</v>
       </c>
       <c r="J17">
-        <v>6.91</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K17">
-        <v>-3.29</v>
+        <v>-4.05</v>
       </c>
       <c r="L17">
-        <v>-2.43</v>
+        <v>-3.11</v>
       </c>
       <c r="M17">
-        <v>17.37</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301378</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>70.69</v>
+        <v>72.17</v>
       </c>
       <c r="E18">
-        <v>75.27</v>
+        <v>71.33</v>
       </c>
       <c r="F18">
-        <v>76</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="G18">
-        <v>69.73999999999999</v>
+        <v>69.25</v>
       </c>
       <c r="H18">
-        <v>20081</v>
+        <v>19978</v>
       </c>
       <c r="I18">
-        <v>223139419</v>
+        <v>216053010</v>
       </c>
       <c r="J18">
-        <v>8.779999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="K18">
-        <v>5.52</v>
+        <v>-3.29</v>
       </c>
       <c r="L18">
-        <v>3.94</v>
+        <v>-2.43</v>
       </c>
       <c r="M18">
-        <v>17.46</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301378</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>74.47</v>
+        <v>70.69</v>
       </c>
       <c r="E19">
-        <v>73.13</v>
+        <v>75.27</v>
       </c>
       <c r="F19">
-        <v>75.13</v>
+        <v>76</v>
       </c>
       <c r="G19">
-        <v>72.67</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="H19">
-        <v>11535</v>
+        <v>20081</v>
       </c>
       <c r="I19">
-        <v>128667781</v>
+        <v>223139419</v>
       </c>
       <c r="J19">
-        <v>3.27</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="K19">
-        <v>-2.84</v>
+        <v>5.52</v>
       </c>
       <c r="L19">
-        <v>-2.14</v>
+        <v>3.94</v>
       </c>
       <c r="M19">
-        <v>10.03</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301378</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>73.34</v>
+        <v>74.47</v>
       </c>
       <c r="E20">
-        <v>71.93000000000001</v>
+        <v>73.13</v>
       </c>
       <c r="F20">
-        <v>74.28</v>
+        <v>75.13</v>
       </c>
       <c r="G20">
-        <v>70</v>
+        <v>72.67</v>
       </c>
       <c r="H20">
-        <v>8378</v>
+        <v>11535</v>
       </c>
       <c r="I20">
-        <v>91422291</v>
+        <v>128667781</v>
       </c>
       <c r="J20">
-        <v>5.85</v>
+        <v>3.27</v>
       </c>
       <c r="K20">
-        <v>-1.64</v>
+        <v>-2.84</v>
       </c>
       <c r="L20">
-        <v>-1.2</v>
+        <v>-2.14</v>
       </c>
       <c r="M20">
-        <v>7.29</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301378</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>73.2</v>
+        <v>73.34</v>
       </c>
       <c r="E21">
-        <v>73.73</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="F21">
-        <v>76.27</v>
+        <v>74.28</v>
       </c>
       <c r="G21">
-        <v>71.72</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>12826</v>
+        <v>8378</v>
       </c>
       <c r="I21">
-        <v>144255736</v>
+        <v>91422291</v>
       </c>
       <c r="J21">
-        <v>6.33</v>
+        <v>5.85</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>-1.64</v>
       </c>
       <c r="L21">
-        <v>1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="M21">
-        <v>11.15</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301378</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>72.67</v>
+        <v>73.2</v>
       </c>
       <c r="E22">
-        <v>70.34999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="F22">
-        <v>73.87</v>
+        <v>76.27</v>
       </c>
       <c r="G22">
-        <v>70.06999999999999</v>
+        <v>71.72</v>
       </c>
       <c r="H22">
-        <v>12169</v>
+        <v>12826</v>
       </c>
       <c r="I22">
-        <v>131091165</v>
+        <v>144255736</v>
       </c>
       <c r="J22">
-        <v>5.15</v>
+        <v>6.33</v>
       </c>
       <c r="K22">
-        <v>-4.58</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
-        <v>-3.38</v>
+        <v>1.8</v>
       </c>
       <c r="M22">
-        <v>10.58</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301378</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>69.67</v>
+        <v>72.67</v>
       </c>
       <c r="E23">
-        <v>69.27</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="F23">
-        <v>71.17</v>
+        <v>73.87</v>
       </c>
       <c r="G23">
-        <v>69.2</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="H23">
-        <v>8080</v>
+        <v>12169</v>
       </c>
       <c r="I23">
-        <v>85728833</v>
+        <v>131091165</v>
       </c>
       <c r="J23">
-        <v>2.8</v>
+        <v>5.15</v>
       </c>
       <c r="K23">
-        <v>-1.54</v>
+        <v>-4.58</v>
       </c>
       <c r="L23">
-        <v>-1.08</v>
+        <v>-3.38</v>
       </c>
       <c r="M23">
-        <v>7.03</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301378</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
+        <v>69.67</v>
+      </c>
+      <c r="E24">
         <v>69.27</v>
       </c>
-      <c r="E24">
-        <v>70.03</v>
-      </c>
       <c r="F24">
-        <v>70.84999999999999</v>
+        <v>71.17</v>
       </c>
       <c r="G24">
-        <v>69.01000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="H24">
-        <v>6724</v>
+        <v>8080</v>
       </c>
       <c r="I24">
-        <v>71232722</v>
+        <v>85728833</v>
       </c>
       <c r="J24">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="K24">
-        <v>1.1</v>
+        <v>-1.54</v>
       </c>
       <c r="L24">
-        <v>0.76</v>
+        <v>-1.08</v>
       </c>
       <c r="M24">
-        <v>5.85</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301378</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>69.59</v>
+        <v>69.27</v>
       </c>
       <c r="E25">
-        <v>63.8</v>
+        <v>70.03</v>
       </c>
       <c r="F25">
-        <v>69.67</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="G25">
-        <v>63.67</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="H25">
-        <v>16106</v>
+        <v>6724</v>
       </c>
       <c r="I25">
-        <v>160557839</v>
+        <v>71232722</v>
       </c>
       <c r="J25">
-        <v>8.57</v>
+        <v>2.66</v>
       </c>
       <c r="K25">
-        <v>-8.9</v>
+        <v>1.1</v>
       </c>
       <c r="L25">
-        <v>-6.23</v>
+        <v>0.76</v>
       </c>
       <c r="M25">
-        <v>14.01</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301378</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>63.2</v>
+        <v>69.59</v>
       </c>
       <c r="E26">
-        <v>66.25</v>
+        <v>63.8</v>
       </c>
       <c r="F26">
-        <v>66.37</v>
+        <v>69.67</v>
       </c>
       <c r="G26">
-        <v>62.59</v>
+        <v>63.67</v>
       </c>
       <c r="H26">
-        <v>10319</v>
+        <v>16106</v>
       </c>
       <c r="I26">
-        <v>102187765</v>
+        <v>160557839</v>
       </c>
       <c r="J26">
-        <v>5.92</v>
+        <v>8.57</v>
       </c>
       <c r="K26">
-        <v>3.84</v>
+        <v>-8.9</v>
       </c>
       <c r="L26">
-        <v>2.45</v>
+        <v>-6.23</v>
       </c>
       <c r="M26">
-        <v>8.970000000000001</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301378</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>63.2</v>
       </c>
       <c r="E27">
-        <v>67.34</v>
+        <v>66.25</v>
       </c>
       <c r="F27">
-        <v>67.65000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="G27">
-        <v>64.67</v>
+        <v>62.59</v>
       </c>
       <c r="H27">
-        <v>8913</v>
+        <v>10319</v>
       </c>
       <c r="I27">
-        <v>89952377</v>
+        <v>102187765</v>
       </c>
       <c r="J27">
-        <v>4.5</v>
+        <v>5.92</v>
       </c>
       <c r="K27">
-        <v>1.65</v>
+        <v>3.84</v>
       </c>
       <c r="L27">
-        <v>1.09</v>
+        <v>2.45</v>
       </c>
       <c r="M27">
-        <v>7.75</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301378</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>65.67</v>
+        <v>66</v>
       </c>
       <c r="E28">
-        <v>65.81</v>
+        <v>67.34</v>
       </c>
       <c r="F28">
-        <v>69</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="G28">
-        <v>65.48999999999999</v>
+        <v>64.67</v>
       </c>
       <c r="H28">
-        <v>8598</v>
+        <v>8913</v>
       </c>
       <c r="I28">
-        <v>86750908</v>
+        <v>89952377</v>
       </c>
       <c r="J28">
-        <v>5.21</v>
+        <v>4.5</v>
       </c>
       <c r="K28">
-        <v>-2.27</v>
+        <v>1.65</v>
       </c>
       <c r="L28">
-        <v>-1.53</v>
+        <v>1.09</v>
       </c>
       <c r="M28">
-        <v>7.48</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301378</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>65.2</v>
+        <v>65.67</v>
       </c>
       <c r="E29">
-        <v>65.56999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="F29">
-        <v>66.33</v>
+        <v>69</v>
       </c>
       <c r="G29">
-        <v>64.51000000000001</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="H29">
-        <v>4676</v>
+        <v>8598</v>
       </c>
       <c r="I29">
-        <v>46468573</v>
+        <v>86750908</v>
       </c>
       <c r="J29">
-        <v>2.77</v>
+        <v>5.21</v>
       </c>
       <c r="K29">
-        <v>-0.36</v>
+        <v>-2.27</v>
       </c>
       <c r="L29">
-        <v>-0.24</v>
+        <v>-1.53</v>
       </c>
       <c r="M29">
-        <v>4.07</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301378</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>65.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="E30">
-        <v>68.11</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="F30">
-        <v>69.29000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="G30">
-        <v>65.37</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="H30">
-        <v>5804</v>
+        <v>4676</v>
       </c>
       <c r="I30">
-        <v>59771818</v>
+        <v>46468573</v>
       </c>
       <c r="J30">
-        <v>5.98</v>
+        <v>2.77</v>
       </c>
       <c r="K30">
-        <v>3.87</v>
+        <v>-0.36</v>
       </c>
       <c r="L30">
-        <v>2.54</v>
+        <v>-0.24</v>
       </c>
       <c r="M30">
-        <v>5.05</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301378</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>67.43000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E31">
-        <v>66.67</v>
+        <v>68.11</v>
       </c>
       <c r="F31">
-        <v>68.63</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="G31">
-        <v>64.75</v>
+        <v>65.37</v>
       </c>
       <c r="H31">
-        <v>6609</v>
+        <v>5804</v>
       </c>
       <c r="I31">
-        <v>66400440</v>
+        <v>59771818</v>
       </c>
       <c r="J31">
-        <v>5.7</v>
+        <v>5.98</v>
       </c>
       <c r="K31">
-        <v>-2.11</v>
+        <v>3.87</v>
       </c>
       <c r="L31">
-        <v>-1.44</v>
+        <v>2.54</v>
       </c>
       <c r="M31">
-        <v>5.75</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301378</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>66.06999999999999</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E32">
-        <v>64.53</v>
+        <v>66.67</v>
       </c>
       <c r="F32">
-        <v>66.67</v>
+        <v>68.63</v>
       </c>
       <c r="G32">
-        <v>63.53</v>
+        <v>64.75</v>
       </c>
       <c r="H32">
-        <v>4799</v>
+        <v>6609</v>
       </c>
       <c r="I32">
-        <v>47153189</v>
+        <v>66400440</v>
       </c>
       <c r="J32">
-        <v>4.71</v>
+        <v>5.7</v>
       </c>
       <c r="K32">
-        <v>-3.21</v>
+        <v>-2.11</v>
       </c>
       <c r="L32">
-        <v>-2.14</v>
+        <v>-1.44</v>
       </c>
       <c r="M32">
-        <v>4.17</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301378</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>65.23</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="E33">
-        <v>67.97</v>
+        <v>64.53</v>
       </c>
       <c r="F33">
-        <v>68.14</v>
+        <v>66.67</v>
       </c>
       <c r="G33">
-        <v>65.23</v>
+        <v>63.53</v>
       </c>
       <c r="H33">
-        <v>7496</v>
+        <v>4799</v>
       </c>
       <c r="I33">
-        <v>76149911</v>
+        <v>47153189</v>
       </c>
       <c r="J33">
-        <v>4.51</v>
+        <v>4.71</v>
       </c>
       <c r="K33">
-        <v>5.33</v>
+        <v>-3.21</v>
       </c>
       <c r="L33">
-        <v>3.44</v>
+        <v>-2.14</v>
       </c>
       <c r="M33">
-        <v>6.52</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301378</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>67.92</v>
+        <v>65.23</v>
       </c>
       <c r="E34">
-        <v>67.90000000000001</v>
+        <v>67.97</v>
       </c>
       <c r="F34">
-        <v>69.05</v>
+        <v>68.14</v>
       </c>
       <c r="G34">
-        <v>66.17</v>
+        <v>65.23</v>
       </c>
       <c r="H34">
-        <v>5863</v>
+        <v>7496</v>
       </c>
       <c r="I34">
-        <v>60155430</v>
+        <v>76149911</v>
       </c>
       <c r="J34">
-        <v>4.24</v>
+        <v>4.51</v>
       </c>
       <c r="K34">
-        <v>-0.1</v>
+        <v>5.33</v>
       </c>
       <c r="L34">
-        <v>-0.07000000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="M34">
-        <v>5.1</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301378</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>68.02</v>
+        <v>67.92</v>
       </c>
       <c r="E35">
-        <v>68.93000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F35">
-        <v>69.31</v>
+        <v>69.05</v>
       </c>
       <c r="G35">
-        <v>66.09</v>
+        <v>66.17</v>
       </c>
       <c r="H35">
-        <v>7272</v>
+        <v>5863</v>
       </c>
       <c r="I35">
-        <v>75022783</v>
+        <v>60155430</v>
       </c>
       <c r="J35">
-        <v>4.74</v>
+        <v>4.24</v>
       </c>
       <c r="K35">
-        <v>1.52</v>
+        <v>-0.1</v>
       </c>
       <c r="L35">
-        <v>1.03</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M35">
-        <v>6.32</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301378</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>69.05</v>
+        <v>68.02</v>
       </c>
       <c r="E36">
-        <v>68.98999999999999</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="F36">
-        <v>70.23</v>
+        <v>69.31</v>
       </c>
       <c r="G36">
-        <v>67.87</v>
+        <v>66.09</v>
       </c>
       <c r="H36">
-        <v>5463</v>
+        <v>7272</v>
       </c>
       <c r="I36">
-        <v>57321468</v>
+        <v>75022783</v>
       </c>
       <c r="J36">
-        <v>3.42</v>
+        <v>4.74</v>
       </c>
       <c r="K36">
-        <v>0.09</v>
+        <v>1.52</v>
       </c>
       <c r="L36">
-        <v>0.06</v>
+        <v>1.03</v>
       </c>
       <c r="M36">
-        <v>4.75</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301378</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>68.67</v>
+        <v>69.05</v>
       </c>
       <c r="E37">
-        <v>74.67</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F37">
-        <v>75.93000000000001</v>
+        <v>70.23</v>
       </c>
       <c r="G37">
-        <v>68.67</v>
+        <v>67.87</v>
       </c>
       <c r="H37">
-        <v>17568</v>
+        <v>5463</v>
       </c>
       <c r="I37">
-        <v>193882758</v>
+        <v>57321468</v>
       </c>
       <c r="J37">
-        <v>10.52</v>
+        <v>3.42</v>
       </c>
       <c r="K37">
-        <v>8.23</v>
+        <v>0.09</v>
       </c>
       <c r="L37">
-        <v>5.68</v>
+        <v>0.06</v>
       </c>
       <c r="M37">
-        <v>15.28</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301378</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>74.94</v>
+        <v>68.67</v>
       </c>
       <c r="E38">
-        <v>72.15000000000001</v>
+        <v>74.67</v>
       </c>
       <c r="F38">
-        <v>75.8</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="G38">
-        <v>71.29000000000001</v>
+        <v>68.67</v>
       </c>
       <c r="H38">
-        <v>10799</v>
+        <v>17568</v>
       </c>
       <c r="I38">
-        <v>119975649</v>
+        <v>193882758</v>
       </c>
       <c r="J38">
-        <v>6.04</v>
+        <v>10.52</v>
       </c>
       <c r="K38">
-        <v>-3.37</v>
+        <v>8.23</v>
       </c>
       <c r="L38">
-        <v>-2.52</v>
+        <v>5.68</v>
       </c>
       <c r="M38">
-        <v>9.390000000000001</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301378</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>72.05</v>
+        <v>74.94</v>
       </c>
       <c r="E39">
-        <v>64.90000000000001</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="F39">
-        <v>72.67</v>
+        <v>75.8</v>
       </c>
       <c r="G39">
-        <v>64.67</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="H39">
-        <v>13305</v>
+        <v>10799</v>
       </c>
       <c r="I39">
-        <v>135827683</v>
+        <v>119975649</v>
       </c>
       <c r="J39">
-        <v>11.09</v>
+        <v>6.04</v>
       </c>
       <c r="K39">
-        <v>-10.05</v>
+        <v>-3.37</v>
       </c>
       <c r="L39">
-        <v>-7.25</v>
+        <v>-2.52</v>
       </c>
       <c r="M39">
-        <v>11.57</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301378</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>64.43000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="E40">
-        <v>66.48999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F40">
-        <v>67.06999999999999</v>
+        <v>72.67</v>
       </c>
       <c r="G40">
-        <v>64.43000000000001</v>
+        <v>64.67</v>
       </c>
       <c r="H40">
-        <v>8724</v>
+        <v>13305</v>
       </c>
       <c r="I40">
-        <v>86402385</v>
+        <v>135827683</v>
       </c>
       <c r="J40">
-        <v>4.07</v>
+        <v>11.09</v>
       </c>
       <c r="K40">
-        <v>2.45</v>
+        <v>-10.05</v>
       </c>
       <c r="L40">
-        <v>1.59</v>
+        <v>-7.25</v>
       </c>
       <c r="M40">
-        <v>7.59</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301378</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>65.93000000000001</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="E41">
-        <v>70.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F41">
-        <v>71.12</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="G41">
-        <v>65.17</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="H41">
-        <v>9764</v>
+        <v>8724</v>
       </c>
       <c r="I41">
-        <v>101126849</v>
+        <v>86402385</v>
       </c>
       <c r="J41">
-        <v>8.949999999999999</v>
+        <v>4.07</v>
       </c>
       <c r="K41">
-        <v>5.58</v>
+        <v>2.45</v>
       </c>
       <c r="L41">
-        <v>3.71</v>
+        <v>1.59</v>
       </c>
       <c r="M41">
-        <v>8.49</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301378</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>69.67</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E42">
-        <v>69.7</v>
+        <v>70.2</v>
       </c>
       <c r="F42">
-        <v>71.31999999999999</v>
+        <v>71.12</v>
       </c>
       <c r="G42">
-        <v>68.16</v>
+        <v>65.17</v>
       </c>
       <c r="H42">
-        <v>9370</v>
+        <v>9764</v>
       </c>
       <c r="I42">
-        <v>98841703</v>
+        <v>101126849</v>
       </c>
       <c r="J42">
-        <v>4.5</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K42">
-        <v>-0.71</v>
+        <v>5.58</v>
       </c>
       <c r="L42">
-        <v>-0.5</v>
+        <v>3.71</v>
       </c>
       <c r="M42">
-        <v>8.15</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301378</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>69.67</v>
       </c>
       <c r="E43">
-        <v>67.77</v>
+        <v>69.7</v>
       </c>
       <c r="F43">
-        <v>71.45</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="G43">
-        <v>67.40000000000001</v>
+        <v>68.16</v>
       </c>
       <c r="H43">
-        <v>7076</v>
+        <v>9370</v>
       </c>
       <c r="I43">
-        <v>73936687</v>
+        <v>98841703</v>
       </c>
       <c r="J43">
-        <v>5.81</v>
+        <v>4.5</v>
       </c>
       <c r="K43">
-        <v>-2.77</v>
+        <v>-0.71</v>
       </c>
       <c r="L43">
-        <v>-1.93</v>
+        <v>-0.5</v>
       </c>
       <c r="M43">
-        <v>6.15</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301378</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>67.26000000000001</v>
+        <v>70</v>
       </c>
       <c r="E44">
-        <v>65.54000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="F44">
-        <v>67.97</v>
+        <v>71.45</v>
       </c>
       <c r="G44">
-        <v>65.28</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H44">
-        <v>7710</v>
+        <v>7076</v>
       </c>
       <c r="I44">
-        <v>77301002</v>
+        <v>73936687</v>
       </c>
       <c r="J44">
-        <v>3.97</v>
+        <v>5.81</v>
       </c>
       <c r="K44">
-        <v>-3.29</v>
+        <v>-2.77</v>
       </c>
       <c r="L44">
-        <v>-2.23</v>
+        <v>-1.93</v>
       </c>
       <c r="M44">
-        <v>6.7</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301378</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>65.33</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="E45">
-        <v>65.88</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F45">
-        <v>66.98999999999999</v>
+        <v>67.97</v>
       </c>
       <c r="G45">
-        <v>65</v>
+        <v>65.28</v>
       </c>
       <c r="H45">
-        <v>4785</v>
+        <v>7710</v>
       </c>
       <c r="I45">
-        <v>47706475</v>
+        <v>77301002</v>
       </c>
       <c r="J45">
-        <v>3.04</v>
+        <v>3.97</v>
       </c>
       <c r="K45">
-        <v>0.52</v>
+        <v>-3.29</v>
       </c>
       <c r="L45">
-        <v>0.34</v>
+        <v>-2.23</v>
       </c>
       <c r="M45">
-        <v>4.16</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301378</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>65.34999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="E46">
-        <v>68.54000000000001</v>
+        <v>65.88</v>
       </c>
       <c r="F46">
-        <v>68.95999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="G46">
-        <v>64.23</v>
+        <v>65</v>
       </c>
       <c r="H46">
-        <v>9467</v>
+        <v>4785</v>
       </c>
       <c r="I46">
-        <v>95659258</v>
+        <v>47706475</v>
       </c>
       <c r="J46">
-        <v>7.18</v>
+        <v>3.04</v>
       </c>
       <c r="K46">
-        <v>4.04</v>
+        <v>0.52</v>
       </c>
       <c r="L46">
-        <v>2.66</v>
+        <v>0.34</v>
       </c>
       <c r="M46">
-        <v>8.23</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>301378</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>68</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E47">
-        <v>70.45</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="F47">
-        <v>71.84</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="G47">
-        <v>65.33</v>
+        <v>64.23</v>
       </c>
       <c r="H47">
-        <v>13579</v>
+        <v>9467</v>
       </c>
       <c r="I47">
-        <v>142830717</v>
+        <v>95659258</v>
       </c>
       <c r="J47">
-        <v>9.5</v>
+        <v>7.18</v>
       </c>
       <c r="K47">
-        <v>2.79</v>
+        <v>4.04</v>
       </c>
       <c r="L47">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="M47">
-        <v>11.81</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>301378</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>72.58</v>
+        <v>68</v>
       </c>
       <c r="E48">
-        <v>68.87</v>
+        <v>70.45</v>
       </c>
       <c r="F48">
-        <v>74.26000000000001</v>
+        <v>71.84</v>
       </c>
       <c r="G48">
-        <v>68.79000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="H48">
-        <v>12736</v>
+        <v>13579</v>
       </c>
       <c r="I48">
-        <v>136782729</v>
+        <v>142830717</v>
       </c>
       <c r="J48">
-        <v>7.76</v>
+        <v>9.5</v>
       </c>
       <c r="K48">
-        <v>-2.24</v>
+        <v>2.79</v>
       </c>
       <c r="L48">
-        <v>-1.58</v>
+        <v>1.91</v>
       </c>
       <c r="M48">
-        <v>11.07</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>301378</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>68.12</v>
+        <v>72.58</v>
       </c>
       <c r="E49">
-        <v>73.70999999999999</v>
+        <v>68.87</v>
       </c>
       <c r="F49">
-        <v>74</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="G49">
-        <v>68.05</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="H49">
-        <v>15710</v>
+        <v>12736</v>
       </c>
       <c r="I49">
-        <v>170528500</v>
+        <v>136782729</v>
       </c>
       <c r="J49">
-        <v>8.640000000000001</v>
+        <v>7.76</v>
       </c>
       <c r="K49">
-        <v>7.03</v>
+        <v>-2.24</v>
       </c>
       <c r="L49">
-        <v>4.84</v>
+        <v>-1.58</v>
       </c>
       <c r="M49">
-        <v>13.66</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>301378</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>74.67</v>
+        <v>68.12</v>
       </c>
       <c r="E50">
-        <v>71.95</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="F50">
-        <v>74.87</v>
+        <v>74</v>
       </c>
       <c r="G50">
-        <v>71.47</v>
+        <v>68.05</v>
       </c>
       <c r="H50">
-        <v>12745</v>
+        <v>15710</v>
       </c>
       <c r="I50">
-        <v>140338802</v>
+        <v>170528500</v>
       </c>
       <c r="J50">
-        <v>4.61</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K50">
-        <v>-2.39</v>
+        <v>7.03</v>
       </c>
       <c r="L50">
-        <v>-1.76</v>
+        <v>4.84</v>
       </c>
       <c r="M50">
-        <v>11.08</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>301378</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>71.48999999999999</v>
+        <v>74.67</v>
       </c>
       <c r="E51">
-        <v>70.92</v>
+        <v>71.95</v>
       </c>
       <c r="F51">
-        <v>72.43000000000001</v>
+        <v>74.87</v>
       </c>
       <c r="G51">
-        <v>69.34</v>
+        <v>71.47</v>
       </c>
       <c r="H51">
-        <v>8914</v>
+        <v>12745</v>
       </c>
       <c r="I51">
-        <v>95510640</v>
+        <v>140338802</v>
       </c>
       <c r="J51">
-        <v>4.29</v>
+        <v>4.61</v>
       </c>
       <c r="K51">
-        <v>-1.43</v>
+        <v>-2.39</v>
       </c>
       <c r="L51">
-        <v>-1.03</v>
+        <v>-1.76</v>
       </c>
       <c r="M51">
-        <v>7.75</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>301378</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>70.93000000000001</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="E52">
-        <v>71.33</v>
+        <v>70.92</v>
       </c>
       <c r="F52">
-        <v>73.31999999999999</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="G52">
-        <v>69.88</v>
+        <v>69.34</v>
       </c>
       <c r="H52">
-        <v>9629</v>
+        <v>8914</v>
       </c>
       <c r="I52">
-        <v>104061343</v>
+        <v>95510640</v>
       </c>
       <c r="J52">
-        <v>4.85</v>
+        <v>4.29</v>
       </c>
       <c r="K52">
-        <v>0.58</v>
+        <v>-1.43</v>
       </c>
       <c r="L52">
-        <v>0.41</v>
+        <v>-1.03</v>
       </c>
       <c r="M52">
-        <v>8.369999999999999</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>301378</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>70.98</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="E53">
-        <v>71.13</v>
+        <v>71.33</v>
       </c>
       <c r="F53">
-        <v>72.43000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="G53">
-        <v>70</v>
+        <v>69.88</v>
       </c>
       <c r="H53">
-        <v>5768</v>
+        <v>9629</v>
       </c>
       <c r="I53">
-        <v>62201281</v>
+        <v>104061343</v>
       </c>
       <c r="J53">
-        <v>3.41</v>
+        <v>4.85</v>
       </c>
       <c r="K53">
-        <v>-0.28</v>
+        <v>0.58</v>
       </c>
       <c r="L53">
-        <v>-0.2</v>
+        <v>0.41</v>
       </c>
       <c r="M53">
-        <v>5.02</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>301378</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>71.33</v>
+        <v>70.98</v>
       </c>
       <c r="E54">
-        <v>69.33</v>
+        <v>71.13</v>
       </c>
       <c r="F54">
-        <v>71.91</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="G54">
-        <v>68.83</v>
+        <v>70</v>
       </c>
       <c r="H54">
-        <v>8916</v>
+        <v>5768</v>
       </c>
       <c r="I54">
-        <v>95048916</v>
+        <v>62201281</v>
       </c>
       <c r="J54">
-        <v>4.33</v>
+        <v>3.41</v>
       </c>
       <c r="K54">
-        <v>-2.53</v>
+        <v>-0.28</v>
       </c>
       <c r="L54">
-        <v>-1.8</v>
+        <v>-0.2</v>
       </c>
       <c r="M54">
-        <v>7.75</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>301378</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>70.06999999999999</v>
+        <v>71.33</v>
       </c>
       <c r="E55">
-        <v>70.95</v>
+        <v>69.33</v>
       </c>
       <c r="F55">
-        <v>71.06</v>
+        <v>71.91</v>
       </c>
       <c r="G55">
-        <v>67.33</v>
+        <v>68.83</v>
       </c>
       <c r="H55">
-        <v>8816</v>
+        <v>8916</v>
       </c>
       <c r="I55">
-        <v>93505474</v>
+        <v>95048916</v>
       </c>
       <c r="J55">
-        <v>5.38</v>
+        <v>4.33</v>
       </c>
       <c r="K55">
-        <v>2.34</v>
+        <v>-2.53</v>
       </c>
       <c r="L55">
-        <v>1.62</v>
+        <v>-1.8</v>
       </c>
       <c r="M55">
-        <v>7.67</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>301378</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>69.95999999999999</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="E56">
-        <v>74.09</v>
+        <v>70.95</v>
       </c>
       <c r="F56">
-        <v>74.5</v>
+        <v>71.06</v>
       </c>
       <c r="G56">
-        <v>69</v>
+        <v>67.33</v>
       </c>
       <c r="H56">
-        <v>23170</v>
+        <v>8816</v>
       </c>
       <c r="I56">
-        <v>167728895</v>
+        <v>93505474</v>
       </c>
       <c r="J56">
-        <v>7.75</v>
+        <v>5.38</v>
       </c>
       <c r="K56">
-        <v>4.43</v>
+        <v>2.34</v>
       </c>
       <c r="L56">
-        <v>3.14</v>
+        <v>1.62</v>
       </c>
       <c r="M56">
-        <v>13.43</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>301378</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>73.8</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="E57">
-        <v>74.76000000000001</v>
+        <v>74.09</v>
       </c>
       <c r="F57">
-        <v>76.08</v>
+        <v>74.5</v>
       </c>
       <c r="G57">
-        <v>70.68000000000001</v>
+        <v>69</v>
       </c>
       <c r="H57">
-        <v>27428</v>
+        <v>23170</v>
       </c>
       <c r="I57">
-        <v>199999301</v>
+        <v>167728895</v>
       </c>
       <c r="J57">
-        <v>7.29</v>
+        <v>7.75</v>
       </c>
       <c r="K57">
-        <v>0.9</v>
+        <v>4.43</v>
       </c>
       <c r="L57">
-        <v>0.67</v>
+        <v>3.14</v>
       </c>
       <c r="M57">
-        <v>15.9</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>301378</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>73</v>
+        <v>73.8</v>
       </c>
       <c r="E58">
-        <v>76.09999999999999</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="F58">
-        <v>78.55</v>
+        <v>76.08</v>
       </c>
       <c r="G58">
-        <v>72.62</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="H58">
-        <v>23442</v>
+        <v>27428</v>
       </c>
       <c r="I58">
-        <v>177893927</v>
+        <v>199999301</v>
       </c>
       <c r="J58">
-        <v>7.93</v>
+        <v>7.29</v>
       </c>
       <c r="K58">
-        <v>1.79</v>
+        <v>0.9</v>
       </c>
       <c r="L58">
-        <v>1.34</v>
+        <v>0.67</v>
       </c>
       <c r="M58">
-        <v>13.59</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>301378</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>74.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="E59">
-        <v>74.51000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F59">
-        <v>75.87</v>
+        <v>78.55</v>
       </c>
       <c r="G59">
-        <v>72.59999999999999</v>
+        <v>72.62</v>
       </c>
       <c r="H59">
-        <v>16037</v>
+        <v>23442</v>
       </c>
       <c r="I59">
-        <v>119565517</v>
+        <v>177893927</v>
       </c>
       <c r="J59">
-        <v>4.3</v>
+        <v>7.93</v>
       </c>
       <c r="K59">
-        <v>-2.09</v>
+        <v>1.79</v>
       </c>
       <c r="L59">
-        <v>-1.59</v>
+        <v>1.34</v>
       </c>
       <c r="M59">
-        <v>9.300000000000001</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>301378</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>74.38</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E60">
-        <v>73.41</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="F60">
-        <v>75.84999999999999</v>
+        <v>75.87</v>
       </c>
       <c r="G60">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H60">
-        <v>13038</v>
+        <v>16037</v>
       </c>
       <c r="I60">
-        <v>96764669</v>
+        <v>119565517</v>
       </c>
       <c r="J60">
-        <v>3.69</v>
+        <v>4.3</v>
       </c>
       <c r="K60">
-        <v>-1.48</v>
+        <v>-2.09</v>
       </c>
       <c r="L60">
-        <v>-1.1</v>
+        <v>-1.59</v>
       </c>
       <c r="M60">
-        <v>7.56</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>301378</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>74.68000000000001</v>
+        <v>74.38</v>
       </c>
       <c r="E61">
-        <v>71.12</v>
+        <v>73.41</v>
       </c>
       <c r="F61">
-        <v>74.68000000000001</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="G61">
-        <v>70.91</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="H61">
-        <v>12474</v>
+        <v>13038</v>
       </c>
       <c r="I61">
-        <v>89848283</v>
+        <v>96764669</v>
       </c>
       <c r="J61">
-        <v>5.14</v>
+        <v>3.69</v>
       </c>
       <c r="K61">
-        <v>-3.12</v>
+        <v>-1.48</v>
       </c>
       <c r="L61">
-        <v>-2.29</v>
+        <v>-1.1</v>
       </c>
       <c r="M61">
-        <v>7.23</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>301378</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>70.66</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="E62">
-        <v>73.5</v>
+        <v>71.12</v>
       </c>
       <c r="F62">
-        <v>74.97</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="G62">
-        <v>69</v>
+        <v>70.91</v>
       </c>
       <c r="H62">
-        <v>15620</v>
+        <v>12474</v>
       </c>
       <c r="I62">
-        <v>113218171</v>
+        <v>89848283</v>
       </c>
       <c r="J62">
-        <v>8.390000000000001</v>
+        <v>5.14</v>
       </c>
       <c r="K62">
-        <v>3.35</v>
+        <v>-3.12</v>
       </c>
       <c r="L62">
-        <v>2.38</v>
+        <v>-2.29</v>
       </c>
       <c r="M62">
-        <v>9.06</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>301378</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>73.33</v>
+        <v>70.66</v>
       </c>
       <c r="E63">
-        <v>75.62</v>
+        <v>73.5</v>
       </c>
       <c r="F63">
-        <v>76.29000000000001</v>
+        <v>74.97</v>
       </c>
       <c r="G63">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H63">
-        <v>16043</v>
+        <v>15620</v>
       </c>
       <c r="I63">
-        <v>119455594</v>
+        <v>113218171</v>
       </c>
       <c r="J63">
-        <v>5.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K63">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="L63">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="M63">
-        <v>9.300000000000001</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>301378</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>75.09999999999999</v>
+        <v>73.33</v>
       </c>
       <c r="E64">
-        <v>73.78</v>
+        <v>75.62</v>
       </c>
       <c r="F64">
-        <v>75.5</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="G64">
-        <v>73.33</v>
+        <v>72</v>
       </c>
       <c r="H64">
-        <v>9668</v>
+        <v>16043</v>
       </c>
       <c r="I64">
-        <v>71752763</v>
+        <v>119455594</v>
       </c>
       <c r="J64">
-        <v>2.87</v>
+        <v>5.84</v>
       </c>
       <c r="K64">
-        <v>-2.43</v>
+        <v>2.88</v>
       </c>
       <c r="L64">
-        <v>-1.84</v>
+        <v>2.12</v>
       </c>
       <c r="M64">
-        <v>5.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>301378</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>73.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E65">
-        <v>70</v>
+        <v>73.78</v>
       </c>
       <c r="F65">
-        <v>73.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="G65">
-        <v>69.91</v>
+        <v>73.33</v>
       </c>
       <c r="H65">
-        <v>10346</v>
+        <v>9668</v>
       </c>
       <c r="I65">
-        <v>73725536</v>
+        <v>71752763</v>
       </c>
       <c r="J65">
-        <v>5.41</v>
+        <v>2.87</v>
       </c>
       <c r="K65">
-        <v>-5.12</v>
+        <v>-2.43</v>
       </c>
       <c r="L65">
-        <v>-3.78</v>
+        <v>-1.84</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>301378</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>69</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E66">
-        <v>64.93000000000001</v>
+        <v>70</v>
       </c>
       <c r="F66">
-        <v>69.88</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G66">
-        <v>64.83</v>
+        <v>69.91</v>
       </c>
       <c r="H66">
-        <v>11213</v>
+        <v>10346</v>
       </c>
       <c r="I66">
-        <v>74809751</v>
+        <v>73725536</v>
       </c>
       <c r="J66">
-        <v>7.21</v>
+        <v>5.41</v>
       </c>
       <c r="K66">
-        <v>-7.24</v>
+        <v>-5.12</v>
       </c>
       <c r="L66">
-        <v>-5.07</v>
+        <v>-3.78</v>
       </c>
       <c r="M66">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>301378</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>65.2</v>
+        <v>69</v>
       </c>
       <c r="E67">
-        <v>65.79000000000001</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="F67">
-        <v>66.47</v>
+        <v>69.88</v>
       </c>
       <c r="G67">
-        <v>65.2</v>
+        <v>64.83</v>
       </c>
       <c r="H67">
-        <v>4946</v>
+        <v>11213</v>
       </c>
       <c r="I67">
-        <v>32600037</v>
+        <v>74809751</v>
       </c>
       <c r="J67">
-        <v>1.96</v>
+        <v>7.21</v>
       </c>
       <c r="K67">
-        <v>1.32</v>
+        <v>-7.24</v>
       </c>
       <c r="L67">
-        <v>0.86</v>
+        <v>-5.07</v>
       </c>
       <c r="M67">
-        <v>2.87</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>301378</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>65.31</v>
+        <v>65.2</v>
       </c>
       <c r="E68">
-        <v>63.71</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F68">
-        <v>65.89</v>
+        <v>66.47</v>
       </c>
       <c r="G68">
-        <v>61.8</v>
+        <v>65.2</v>
       </c>
       <c r="H68">
-        <v>8990</v>
+        <v>4946</v>
       </c>
       <c r="I68">
-        <v>56639172</v>
+        <v>32600037</v>
       </c>
       <c r="J68">
-        <v>6.22</v>
+        <v>1.96</v>
       </c>
       <c r="K68">
-        <v>-3.16</v>
+        <v>1.32</v>
       </c>
       <c r="L68">
-        <v>-2.08</v>
+        <v>0.86</v>
       </c>
       <c r="M68">
-        <v>5.21</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>301378</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>63.7</v>
+        <v>65.31</v>
       </c>
       <c r="E69">
-        <v>64.52</v>
+        <v>63.71</v>
       </c>
       <c r="F69">
-        <v>65.79000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="G69">
-        <v>61.2</v>
+        <v>61.8</v>
       </c>
       <c r="H69">
-        <v>13359</v>
+        <v>8990</v>
       </c>
       <c r="I69">
-        <v>84050191</v>
+        <v>56639172</v>
       </c>
       <c r="J69">
-        <v>7.2</v>
+        <v>6.22</v>
       </c>
       <c r="K69">
-        <v>1.27</v>
+        <v>-3.16</v>
       </c>
       <c r="L69">
-        <v>0.8100000000000001</v>
+        <v>-2.08</v>
       </c>
       <c r="M69">
-        <v>7.74</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>301378</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>63.95</v>
+        <v>63.7</v>
       </c>
       <c r="E70">
-        <v>64.56999999999999</v>
+        <v>64.52</v>
       </c>
       <c r="F70">
-        <v>64.61</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="G70">
-        <v>62.82</v>
+        <v>61.2</v>
       </c>
       <c r="H70">
-        <v>7069</v>
+        <v>13359</v>
       </c>
       <c r="I70">
-        <v>45150201</v>
+        <v>84050191</v>
       </c>
       <c r="J70">
-        <v>2.77</v>
+        <v>7.2</v>
       </c>
       <c r="K70">
-        <v>0.08</v>
+        <v>1.27</v>
       </c>
       <c r="L70">
-        <v>0.05</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M70">
-        <v>4.1</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>301378</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>64.77</v>
+        <v>63.95</v>
       </c>
       <c r="E71">
-        <v>63.4</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="F71">
-        <v>64.77</v>
+        <v>64.61</v>
       </c>
       <c r="G71">
         <v>62.82</v>
       </c>
       <c r="H71">
-        <v>6281</v>
+        <v>7069</v>
       </c>
       <c r="I71">
-        <v>39912792</v>
+        <v>45150201</v>
       </c>
       <c r="J71">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="K71">
-        <v>-1.81</v>
+        <v>0.08</v>
       </c>
       <c r="L71">
-        <v>-1.17</v>
+        <v>0.05</v>
       </c>
       <c r="M71">
-        <v>3.64</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>301378</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>63.18</v>
+        <v>64.77</v>
       </c>
       <c r="E72">
-        <v>63.76</v>
+        <v>63.4</v>
       </c>
       <c r="F72">
-        <v>64.09999999999999</v>
+        <v>64.77</v>
       </c>
       <c r="G72">
-        <v>62.86</v>
+        <v>62.82</v>
       </c>
       <c r="H72">
-        <v>4625</v>
+        <v>6281</v>
       </c>
       <c r="I72">
-        <v>29358911</v>
+        <v>39912792</v>
       </c>
       <c r="J72">
-        <v>1.96</v>
+        <v>3.02</v>
       </c>
       <c r="K72">
-        <v>0.57</v>
+        <v>-1.81</v>
       </c>
       <c r="L72">
-        <v>0.36</v>
+        <v>-1.17</v>
       </c>
       <c r="M72">
-        <v>2.68</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>301378</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>63.75</v>
+        <v>63.18</v>
       </c>
       <c r="E73">
-        <v>63.17</v>
+        <v>63.76</v>
       </c>
       <c r="F73">
-        <v>64.88</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G73">
-        <v>62.84</v>
+        <v>62.86</v>
       </c>
       <c r="H73">
-        <v>5858</v>
+        <v>4625</v>
       </c>
       <c r="I73">
-        <v>37381449</v>
+        <v>29358911</v>
       </c>
       <c r="J73">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="K73">
-        <v>-0.93</v>
+        <v>0.57</v>
       </c>
       <c r="L73">
-        <v>-0.59</v>
+        <v>0.36</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>301378</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>63</v>
+        <v>63.75</v>
       </c>
       <c r="E74">
-        <v>63.18</v>
+        <v>63.17</v>
       </c>
       <c r="F74">
-        <v>63.93</v>
+        <v>64.88</v>
       </c>
       <c r="G74">
-        <v>62.29</v>
+        <v>62.84</v>
       </c>
       <c r="H74">
-        <v>4144</v>
+        <v>5858</v>
       </c>
       <c r="I74">
-        <v>26200034</v>
+        <v>37381449</v>
       </c>
       <c r="J74">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="K74">
-        <v>0.02</v>
+        <v>-0.93</v>
       </c>
       <c r="L74">
-        <v>0.01</v>
+        <v>-0.59</v>
       </c>
       <c r="M74">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>301378</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>63.07</v>
+        <v>63</v>
       </c>
       <c r="E75">
-        <v>61.5</v>
+        <v>63.18</v>
       </c>
       <c r="F75">
-        <v>63.1</v>
+        <v>63.93</v>
       </c>
       <c r="G75">
-        <v>60.68</v>
+        <v>62.29</v>
       </c>
       <c r="H75">
-        <v>8023</v>
+        <v>4144</v>
       </c>
       <c r="I75">
-        <v>49257030</v>
+        <v>26200034</v>
       </c>
       <c r="J75">
-        <v>3.83</v>
+        <v>2.6</v>
       </c>
       <c r="K75">
-        <v>-2.66</v>
+        <v>0.02</v>
       </c>
       <c r="L75">
-        <v>-1.68</v>
+        <v>0.01</v>
       </c>
       <c r="M75">
-        <v>4.65</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>301378</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>61.55</v>
+        <v>63.07</v>
       </c>
       <c r="E76">
-        <v>60.8</v>
+        <v>61.5</v>
       </c>
       <c r="F76">
-        <v>61.8</v>
+        <v>63.1</v>
       </c>
       <c r="G76">
-        <v>60.32</v>
+        <v>60.68</v>
       </c>
       <c r="H76">
-        <v>3474</v>
+        <v>8023</v>
       </c>
       <c r="I76">
-        <v>21099276</v>
+        <v>49257030</v>
       </c>
       <c r="J76">
-        <v>2.41</v>
+        <v>3.83</v>
       </c>
       <c r="K76">
-        <v>-1.14</v>
+        <v>-2.66</v>
       </c>
       <c r="L76">
-        <v>-0.7</v>
+        <v>-1.68</v>
       </c>
       <c r="M76">
-        <v>2.01</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>301378</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>60.69</v>
+        <v>61.55</v>
       </c>
       <c r="E77">
-        <v>60.98</v>
+        <v>60.8</v>
       </c>
       <c r="F77">
-        <v>61.35</v>
+        <v>61.8</v>
       </c>
       <c r="G77">
-        <v>60.65</v>
+        <v>60.32</v>
       </c>
       <c r="H77">
-        <v>2448</v>
+        <v>3474</v>
       </c>
       <c r="I77">
-        <v>14921466</v>
+        <v>21099276</v>
       </c>
       <c r="J77">
-        <v>1.15</v>
+        <v>2.41</v>
       </c>
       <c r="K77">
-        <v>0.3</v>
+        <v>-1.14</v>
       </c>
       <c r="L77">
-        <v>0.18</v>
+        <v>-0.7</v>
       </c>
       <c r="M77">
-        <v>1.42</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>301378</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
+        <v>60.69</v>
+      </c>
+      <c r="E78">
         <v>60.98</v>
       </c>
-      <c r="E78">
-        <v>58.65</v>
-      </c>
       <c r="F78">
-        <v>61.29</v>
+        <v>61.35</v>
       </c>
       <c r="G78">
-        <v>58.48</v>
+        <v>60.65</v>
       </c>
       <c r="H78">
-        <v>8337</v>
+        <v>2448</v>
       </c>
       <c r="I78">
-        <v>49488080</v>
+        <v>14921466</v>
       </c>
       <c r="J78">
-        <v>4.61</v>
+        <v>1.15</v>
       </c>
       <c r="K78">
-        <v>-3.82</v>
+        <v>0.3</v>
       </c>
       <c r="L78">
-        <v>-2.33</v>
+        <v>0.18</v>
       </c>
       <c r="M78">
-        <v>4.83</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>301378</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>58.64</v>
+        <v>60.98</v>
       </c>
       <c r="E79">
-        <v>59.11</v>
+        <v>58.65</v>
       </c>
       <c r="F79">
-        <v>59.49</v>
+        <v>61.29</v>
       </c>
       <c r="G79">
-        <v>58.42</v>
+        <v>58.48</v>
       </c>
       <c r="H79">
-        <v>4346</v>
+        <v>8337</v>
       </c>
       <c r="I79">
-        <v>25630409</v>
+        <v>49488080</v>
       </c>
       <c r="J79">
-        <v>1.82</v>
+        <v>4.61</v>
       </c>
       <c r="K79">
-        <v>0.78</v>
+        <v>-3.82</v>
       </c>
       <c r="L79">
-        <v>0.46</v>
+        <v>-2.33</v>
       </c>
       <c r="M79">
-        <v>2.52</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>301378</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>59.28</v>
+        <v>58.64</v>
       </c>
       <c r="E80">
-        <v>61.16</v>
+        <v>59.11</v>
       </c>
       <c r="F80">
-        <v>61.63</v>
+        <v>59.49</v>
       </c>
       <c r="G80">
-        <v>59.25</v>
+        <v>58.42</v>
       </c>
       <c r="H80">
-        <v>8176</v>
+        <v>4346</v>
       </c>
       <c r="I80">
-        <v>49548375</v>
+        <v>25630409</v>
       </c>
       <c r="J80">
-        <v>4.03</v>
+        <v>1.82</v>
       </c>
       <c r="K80">
-        <v>3.47</v>
+        <v>0.78</v>
       </c>
       <c r="L80">
-        <v>2.05</v>
+        <v>0.46</v>
       </c>
       <c r="M80">
-        <v>4.74</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>301378</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>61.01</v>
+        <v>59.28</v>
       </c>
       <c r="E81">
-        <v>60.33</v>
+        <v>61.16</v>
       </c>
       <c r="F81">
-        <v>61.01</v>
+        <v>61.63</v>
       </c>
       <c r="G81">
-        <v>59.81</v>
+        <v>59.25</v>
       </c>
       <c r="H81">
-        <v>3847</v>
+        <v>8176</v>
       </c>
       <c r="I81">
-        <v>23145097</v>
+        <v>49548375</v>
       </c>
       <c r="J81">
-        <v>1.96</v>
+        <v>4.03</v>
       </c>
       <c r="K81">
-        <v>-1.36</v>
+        <v>3.47</v>
       </c>
       <c r="L81">
-        <v>-0.83</v>
+        <v>2.05</v>
       </c>
       <c r="M81">
-        <v>2.23</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>301378</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>60.01</v>
+        <v>61.01</v>
       </c>
       <c r="E82">
-        <v>58.58</v>
+        <v>60.33</v>
       </c>
       <c r="F82">
-        <v>60.33</v>
+        <v>61.01</v>
       </c>
       <c r="G82">
-        <v>58.5</v>
+        <v>59.81</v>
       </c>
       <c r="H82">
-        <v>5143</v>
+        <v>3847</v>
       </c>
       <c r="I82">
-        <v>30433629</v>
+        <v>23145097</v>
       </c>
       <c r="J82">
-        <v>3.03</v>
+        <v>1.96</v>
       </c>
       <c r="K82">
-        <v>-2.9</v>
+        <v>-1.36</v>
       </c>
       <c r="L82">
-        <v>-1.75</v>
+        <v>-0.83</v>
       </c>
       <c r="M82">
-        <v>2.98</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>301378</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>58.68</v>
+        <v>60.01</v>
       </c>
       <c r="E83">
-        <v>60.52</v>
+        <v>58.58</v>
       </c>
       <c r="F83">
-        <v>61.44</v>
+        <v>60.33</v>
       </c>
       <c r="G83">
-        <v>58.68</v>
+        <v>58.5</v>
       </c>
       <c r="H83">
-        <v>5965</v>
+        <v>5143</v>
       </c>
       <c r="I83">
-        <v>36032578</v>
+        <v>30433629</v>
       </c>
       <c r="J83">
-        <v>4.71</v>
+        <v>3.03</v>
       </c>
       <c r="K83">
-        <v>3.31</v>
+        <v>-2.9</v>
       </c>
       <c r="L83">
-        <v>1.94</v>
+        <v>-1.75</v>
       </c>
       <c r="M83">
-        <v>3.46</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>301378</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>60.1</v>
+        <v>58.68</v>
       </c>
       <c r="E84">
-        <v>58.83</v>
+        <v>60.52</v>
       </c>
       <c r="F84">
-        <v>60.73</v>
+        <v>61.44</v>
       </c>
       <c r="G84">
-        <v>58.55</v>
+        <v>58.68</v>
       </c>
       <c r="H84">
-        <v>5769</v>
+        <v>5965</v>
       </c>
       <c r="I84">
-        <v>34164279</v>
+        <v>36032578</v>
       </c>
       <c r="J84">
-        <v>3.6</v>
+        <v>4.71</v>
       </c>
       <c r="K84">
-        <v>-2.79</v>
+        <v>3.31</v>
       </c>
       <c r="L84">
-        <v>-1.69</v>
+        <v>1.94</v>
       </c>
       <c r="M84">
-        <v>3.34</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>301378</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>58.5</v>
+        <v>60.1</v>
       </c>
       <c r="E85">
-        <v>59.8</v>
+        <v>58.83</v>
       </c>
       <c r="F85">
-        <v>61</v>
+        <v>60.73</v>
       </c>
       <c r="G85">
-        <v>58.02</v>
+        <v>58.55</v>
       </c>
       <c r="H85">
-        <v>5301</v>
+        <v>5769</v>
       </c>
       <c r="I85">
-        <v>31679896</v>
+        <v>34164279</v>
       </c>
       <c r="J85">
-        <v>5.07</v>
+        <v>3.6</v>
       </c>
       <c r="K85">
-        <v>1.65</v>
+        <v>-2.79</v>
       </c>
       <c r="L85">
-        <v>0.97</v>
+        <v>-1.69</v>
       </c>
       <c r="M85">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>301378</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
-        <v>59.29</v>
+        <v>58.5</v>
       </c>
       <c r="E86">
-        <v>58.38</v>
+        <v>59.8</v>
       </c>
       <c r="F86">
-        <v>59.3</v>
+        <v>61</v>
       </c>
       <c r="G86">
-        <v>58.06</v>
+        <v>58.02</v>
       </c>
       <c r="H86">
-        <v>5854</v>
+        <v>5301</v>
       </c>
       <c r="I86">
-        <v>34264602</v>
+        <v>31679896</v>
       </c>
       <c r="J86">
-        <v>2.07</v>
+        <v>5.07</v>
       </c>
       <c r="K86">
-        <v>-2.37</v>
+        <v>1.65</v>
       </c>
       <c r="L86">
-        <v>-1.42</v>
+        <v>0.97</v>
       </c>
       <c r="M86">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>301378</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D87">
-        <v>58.4</v>
+        <v>59.29</v>
       </c>
       <c r="E87">
-        <v>60.43</v>
+        <v>58.38</v>
       </c>
       <c r="F87">
-        <v>61.23</v>
+        <v>59.3</v>
       </c>
       <c r="G87">
-        <v>58.4</v>
+        <v>58.06</v>
       </c>
       <c r="H87">
-        <v>8086</v>
+        <v>5854</v>
       </c>
       <c r="I87">
-        <v>48365207</v>
+        <v>34264602</v>
       </c>
       <c r="J87">
-        <v>4.85</v>
+        <v>2.07</v>
       </c>
       <c r="K87">
-        <v>3.51</v>
+        <v>-2.37</v>
       </c>
       <c r="L87">
-        <v>2.05</v>
+        <v>-1.42</v>
       </c>
       <c r="M87">
-        <v>4.69</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>301378</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>60.29</v>
+        <v>58.4</v>
       </c>
       <c r="E88">
-        <v>59.42</v>
+        <v>60.43</v>
       </c>
       <c r="F88">
-        <v>60.38</v>
+        <v>61.23</v>
       </c>
       <c r="G88">
-        <v>59.01</v>
+        <v>58.4</v>
       </c>
       <c r="H88">
-        <v>3956</v>
+        <v>8086</v>
       </c>
       <c r="I88">
-        <v>23519148</v>
+        <v>48365207</v>
       </c>
       <c r="J88">
-        <v>2.27</v>
+        <v>4.85</v>
       </c>
       <c r="K88">
-        <v>-1.67</v>
+        <v>3.51</v>
       </c>
       <c r="L88">
-        <v>-1.01</v>
+        <v>2.05</v>
       </c>
       <c r="M88">
-        <v>2.29</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>301378</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>59.52</v>
+        <v>60.29</v>
       </c>
       <c r="E89">
-        <v>57.63</v>
+        <v>59.42</v>
       </c>
       <c r="F89">
-        <v>59.95</v>
+        <v>60.38</v>
       </c>
       <c r="G89">
-        <v>57.25</v>
+        <v>59.01</v>
       </c>
       <c r="H89">
-        <v>7175</v>
+        <v>3956</v>
       </c>
       <c r="I89">
-        <v>41800766</v>
+        <v>23519148</v>
       </c>
       <c r="J89">
-        <v>4.54</v>
+        <v>2.27</v>
       </c>
       <c r="K89">
-        <v>-3.01</v>
+        <v>-1.67</v>
       </c>
       <c r="L89">
-        <v>-1.79</v>
+        <v>-1.01</v>
       </c>
       <c r="M89">
-        <v>4.16</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>301378</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>57.65</v>
+        <v>59.52</v>
       </c>
       <c r="E90">
-        <v>57.82</v>
+        <v>57.63</v>
       </c>
       <c r="F90">
-        <v>58.25</v>
+        <v>59.95</v>
       </c>
       <c r="G90">
-        <v>57.01</v>
+        <v>57.25</v>
       </c>
       <c r="H90">
-        <v>4009</v>
+        <v>7175</v>
       </c>
       <c r="I90">
-        <v>23135795</v>
+        <v>41800766</v>
       </c>
       <c r="J90">
-        <v>2.15</v>
+        <v>4.54</v>
       </c>
       <c r="K90">
-        <v>0.33</v>
+        <v>-3.01</v>
       </c>
       <c r="L90">
-        <v>0.19</v>
+        <v>-1.79</v>
       </c>
       <c r="M90">
-        <v>2.32</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>301378</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D91">
-        <v>58</v>
+        <v>57.65</v>
       </c>
       <c r="E91">
-        <v>57.89</v>
+        <v>57.82</v>
       </c>
       <c r="F91">
-        <v>58.34</v>
+        <v>58.25</v>
       </c>
       <c r="G91">
-        <v>57.56</v>
+        <v>57.01</v>
       </c>
       <c r="H91">
         <v>4009</v>
       </c>
       <c r="I91">
-        <v>23241033</v>
+        <v>23135795</v>
       </c>
       <c r="J91">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="K91">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="L91">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="M91">
         <v>2.32</v>
@@ -4614,2584 +4665,2625 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>301378</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>57.83</v>
+        <v>58</v>
       </c>
       <c r="E92">
-        <v>56.76</v>
+        <v>57.89</v>
       </c>
       <c r="F92">
-        <v>57.83</v>
+        <v>58.34</v>
       </c>
       <c r="G92">
-        <v>56.56</v>
+        <v>57.56</v>
       </c>
       <c r="H92">
-        <v>5323</v>
+        <v>4009</v>
       </c>
       <c r="I92">
-        <v>30301665</v>
+        <v>23241033</v>
       </c>
       <c r="J92">
-        <v>2.19</v>
+        <v>1.35</v>
       </c>
       <c r="K92">
-        <v>-1.95</v>
+        <v>0.12</v>
       </c>
       <c r="L92">
-        <v>-1.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M92">
-        <v>3.09</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>301378</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>56.32</v>
+        <v>57.83</v>
       </c>
       <c r="E93">
-        <v>58.17</v>
+        <v>56.76</v>
       </c>
       <c r="F93">
-        <v>58.3</v>
+        <v>57.83</v>
       </c>
       <c r="G93">
-        <v>54.83</v>
+        <v>56.56</v>
       </c>
       <c r="H93">
-        <v>11073</v>
+        <v>5323</v>
       </c>
       <c r="I93">
-        <v>62178595</v>
+        <v>30301665</v>
       </c>
       <c r="J93">
-        <v>6.11</v>
+        <v>2.19</v>
       </c>
       <c r="K93">
-        <v>2.48</v>
+        <v>-1.95</v>
       </c>
       <c r="L93">
-        <v>1.41</v>
+        <v>-1.13</v>
       </c>
       <c r="M93">
-        <v>6.42</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>301378</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D94">
-        <v>57</v>
+        <v>56.32</v>
       </c>
       <c r="E94">
-        <v>56.02</v>
+        <v>58.17</v>
       </c>
       <c r="F94">
-        <v>57.27</v>
+        <v>58.3</v>
       </c>
       <c r="G94">
-        <v>55.65</v>
+        <v>54.83</v>
       </c>
       <c r="H94">
-        <v>8634</v>
+        <v>11073</v>
       </c>
       <c r="I94">
-        <v>48653628</v>
+        <v>62178595</v>
       </c>
       <c r="J94">
-        <v>2.78</v>
+        <v>6.11</v>
       </c>
       <c r="K94">
-        <v>-3.7</v>
+        <v>2.48</v>
       </c>
       <c r="L94">
-        <v>-2.15</v>
+        <v>1.41</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>301378</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E95">
-        <v>56.81</v>
+        <v>56.02</v>
       </c>
       <c r="F95">
-        <v>57.1</v>
+        <v>57.27</v>
       </c>
       <c r="G95">
-        <v>55.76</v>
+        <v>55.65</v>
       </c>
       <c r="H95">
-        <v>6492</v>
+        <v>8634</v>
       </c>
       <c r="I95">
-        <v>36801399</v>
+        <v>48653628</v>
       </c>
       <c r="J95">
-        <v>2.39</v>
+        <v>2.78</v>
       </c>
       <c r="K95">
-        <v>1.41</v>
+        <v>-3.7</v>
       </c>
       <c r="L95">
-        <v>0.79</v>
+        <v>-2.15</v>
       </c>
       <c r="M95">
-        <v>3.76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>301378</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D96">
+        <v>56</v>
+      </c>
+      <c r="E96">
         <v>56.81</v>
       </c>
-      <c r="E96">
-        <v>58.4</v>
-      </c>
       <c r="F96">
-        <v>58.6</v>
+        <v>57.1</v>
       </c>
       <c r="G96">
-        <v>56.5</v>
+        <v>55.76</v>
       </c>
       <c r="H96">
-        <v>9454</v>
+        <v>6492</v>
       </c>
       <c r="I96">
-        <v>54672011</v>
+        <v>36801399</v>
       </c>
       <c r="J96">
-        <v>3.7</v>
+        <v>2.39</v>
       </c>
       <c r="K96">
-        <v>2.8</v>
+        <v>1.41</v>
       </c>
       <c r="L96">
-        <v>1.59</v>
+        <v>0.79</v>
       </c>
       <c r="M96">
-        <v>5.48</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>301378</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D97">
-        <v>58.82</v>
+        <v>56.81</v>
       </c>
       <c r="E97">
-        <v>61.45</v>
+        <v>58.4</v>
       </c>
       <c r="F97">
-        <v>61.89</v>
+        <v>58.6</v>
       </c>
       <c r="G97">
-        <v>58.2</v>
+        <v>56.5</v>
       </c>
       <c r="H97">
-        <v>21519</v>
+        <v>9454</v>
       </c>
       <c r="I97">
-        <v>130422887</v>
+        <v>54672011</v>
       </c>
       <c r="J97">
-        <v>6.32</v>
+        <v>3.7</v>
       </c>
       <c r="K97">
-        <v>5.22</v>
+        <v>2.8</v>
       </c>
       <c r="L97">
-        <v>3.05</v>
+        <v>1.59</v>
       </c>
       <c r="M97">
-        <v>12.47</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>301378</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D98">
-        <v>60.61</v>
+        <v>58.82</v>
       </c>
       <c r="E98">
-        <v>61.35</v>
+        <v>61.45</v>
       </c>
       <c r="F98">
-        <v>62.91</v>
+        <v>61.89</v>
       </c>
       <c r="G98">
-        <v>60.28</v>
+        <v>58.2</v>
       </c>
       <c r="H98">
-        <v>17045</v>
+        <v>21519</v>
       </c>
       <c r="I98">
-        <v>104684959</v>
+        <v>130422887</v>
       </c>
       <c r="J98">
-        <v>4.28</v>
+        <v>6.32</v>
       </c>
       <c r="K98">
-        <v>-0.16</v>
+        <v>5.22</v>
       </c>
       <c r="L98">
-        <v>-0.1</v>
+        <v>3.05</v>
       </c>
       <c r="M98">
-        <v>9.880000000000001</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>301378</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D99">
-        <v>61.6</v>
+        <v>60.61</v>
       </c>
       <c r="E99">
-        <v>62.56</v>
+        <v>61.35</v>
       </c>
       <c r="F99">
-        <v>63.87</v>
+        <v>62.91</v>
       </c>
       <c r="G99">
-        <v>61.1</v>
+        <v>60.28</v>
       </c>
       <c r="H99">
-        <v>20249</v>
+        <v>17045</v>
       </c>
       <c r="I99">
-        <v>126544669</v>
+        <v>104684959</v>
       </c>
       <c r="J99">
-        <v>4.52</v>
+        <v>4.28</v>
       </c>
       <c r="K99">
-        <v>1.97</v>
+        <v>-0.16</v>
       </c>
       <c r="L99">
-        <v>1.21</v>
+        <v>-0.1</v>
       </c>
       <c r="M99">
-        <v>11.74</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>301378</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D100">
-        <v>62</v>
+        <v>61.6</v>
       </c>
       <c r="E100">
-        <v>59.04</v>
+        <v>62.56</v>
       </c>
       <c r="F100">
-        <v>62</v>
+        <v>63.87</v>
       </c>
       <c r="G100">
-        <v>58.81</v>
+        <v>61.1</v>
       </c>
       <c r="H100">
-        <v>18266</v>
+        <v>20249</v>
       </c>
       <c r="I100">
-        <v>109569145</v>
+        <v>126544669</v>
       </c>
       <c r="J100">
-        <v>5.1</v>
+        <v>4.52</v>
       </c>
       <c r="K100">
-        <v>-5.63</v>
+        <v>1.97</v>
       </c>
       <c r="L100">
-        <v>-3.52</v>
+        <v>1.21</v>
       </c>
       <c r="M100">
-        <v>10.59</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>301378</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D101">
-        <v>59.78</v>
+        <v>62</v>
       </c>
       <c r="E101">
-        <v>62.48</v>
+        <v>59.04</v>
       </c>
       <c r="F101">
-        <v>63.87</v>
+        <v>62</v>
       </c>
       <c r="G101">
-        <v>59.04</v>
+        <v>58.81</v>
       </c>
       <c r="H101">
-        <v>23616</v>
+        <v>18266</v>
       </c>
       <c r="I101">
-        <v>145803016</v>
+        <v>109569145</v>
       </c>
       <c r="J101">
-        <v>8.18</v>
+        <v>5.1</v>
       </c>
       <c r="K101">
-        <v>5.83</v>
+        <v>-5.63</v>
       </c>
       <c r="L101">
-        <v>3.44</v>
+        <v>-3.52</v>
       </c>
       <c r="M101">
-        <v>13.69</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>301378</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D102">
-        <v>61.53</v>
+        <v>59.78</v>
       </c>
       <c r="E102">
-        <v>60.26</v>
+        <v>62.48</v>
       </c>
       <c r="F102">
-        <v>62.07</v>
+        <v>63.87</v>
       </c>
       <c r="G102">
-        <v>59.4</v>
+        <v>59.04</v>
       </c>
       <c r="H102">
-        <v>19028</v>
+        <v>23616</v>
       </c>
       <c r="I102">
-        <v>115176919</v>
+        <v>145803016</v>
       </c>
       <c r="J102">
-        <v>4.27</v>
+        <v>8.18</v>
       </c>
       <c r="K102">
-        <v>-3.55</v>
+        <v>5.83</v>
       </c>
       <c r="L102">
-        <v>-2.22</v>
+        <v>3.44</v>
       </c>
       <c r="M102">
-        <v>11.03</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>301378</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>59.71</v>
+        <v>61.53</v>
       </c>
       <c r="E103">
-        <v>58.82</v>
+        <v>60.26</v>
       </c>
       <c r="F103">
-        <v>62.67</v>
+        <v>62.07</v>
       </c>
       <c r="G103">
-        <v>56.71</v>
+        <v>59.4</v>
       </c>
       <c r="H103">
-        <v>24089</v>
+        <v>19028</v>
       </c>
       <c r="I103">
-        <v>141725016</v>
+        <v>115176919</v>
       </c>
       <c r="J103">
-        <v>9.890000000000001</v>
+        <v>4.27</v>
       </c>
       <c r="K103">
-        <v>-2.39</v>
+        <v>-3.55</v>
       </c>
       <c r="L103">
-        <v>-1.44</v>
+        <v>-2.22</v>
       </c>
       <c r="M103">
-        <v>13.96</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>301378</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D104">
-        <v>57.63</v>
+        <v>59.71</v>
       </c>
       <c r="E104">
-        <v>59.98</v>
+        <v>58.82</v>
       </c>
       <c r="F104">
-        <v>60.05</v>
+        <v>62.67</v>
       </c>
       <c r="G104">
-        <v>56.3</v>
+        <v>56.71</v>
       </c>
       <c r="H104">
-        <v>20561</v>
+        <v>24089</v>
       </c>
       <c r="I104">
-        <v>119934578</v>
+        <v>141725016</v>
       </c>
       <c r="J104">
-        <v>6.38</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K104">
-        <v>1.97</v>
+        <v>-2.39</v>
       </c>
       <c r="L104">
-        <v>1.16</v>
+        <v>-1.44</v>
       </c>
       <c r="M104">
-        <v>11.92</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>301378</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>60.01</v>
+        <v>57.63</v>
       </c>
       <c r="E105">
-        <v>58.76</v>
+        <v>59.98</v>
       </c>
       <c r="F105">
-        <v>61.7</v>
+        <v>60.05</v>
       </c>
       <c r="G105">
-        <v>58.68</v>
+        <v>56.3</v>
       </c>
       <c r="H105">
-        <v>20043</v>
+        <v>20561</v>
       </c>
       <c r="I105">
-        <v>121019952</v>
+        <v>119934578</v>
       </c>
       <c r="J105">
-        <v>5.04</v>
+        <v>6.38</v>
       </c>
       <c r="K105">
-        <v>-2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L105">
-        <v>-1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M105">
-        <v>11.62</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B106">
+        <v>301378</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>58.5</v>
+        <v>60.01</v>
       </c>
       <c r="E106">
-        <v>60.89</v>
+        <v>58.76</v>
       </c>
       <c r="F106">
-        <v>62.42</v>
+        <v>61.7</v>
       </c>
       <c r="G106">
-        <v>58.5</v>
+        <v>58.68</v>
       </c>
       <c r="H106">
-        <v>28154</v>
+        <v>20043</v>
       </c>
       <c r="I106">
-        <v>172009187</v>
+        <v>121019952</v>
       </c>
       <c r="J106">
-        <v>6.67</v>
+        <v>5.04</v>
       </c>
       <c r="K106">
-        <v>3.62</v>
+        <v>-2.03</v>
       </c>
       <c r="L106">
-        <v>2.13</v>
+        <v>-1.22</v>
       </c>
       <c r="M106">
-        <v>16.32</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>301378</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D107">
-        <v>62.28</v>
+        <v>58.5</v>
       </c>
       <c r="E107">
-        <v>67.40000000000001</v>
+        <v>60.89</v>
       </c>
       <c r="F107">
-        <v>67.40000000000001</v>
+        <v>62.42</v>
       </c>
       <c r="G107">
-        <v>60.95</v>
+        <v>58.5</v>
       </c>
       <c r="H107">
-        <v>57398</v>
+        <v>28154</v>
       </c>
       <c r="I107">
-        <v>370474817</v>
+        <v>172009187</v>
       </c>
       <c r="J107">
-        <v>10.59</v>
+        <v>6.67</v>
       </c>
       <c r="K107">
-        <v>10.69</v>
+        <v>3.62</v>
       </c>
       <c r="L107">
-        <v>6.51</v>
+        <v>2.13</v>
       </c>
       <c r="M107">
-        <v>33.27</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>301378</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>65.25</v>
+        <v>62.28</v>
       </c>
       <c r="E108">
-        <v>63.72</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F108">
-        <v>66.98999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G108">
-        <v>63.7</v>
+        <v>60.95</v>
       </c>
       <c r="H108">
-        <v>40918</v>
+        <v>57398</v>
       </c>
       <c r="I108">
-        <v>267257089</v>
+        <v>370474817</v>
       </c>
       <c r="J108">
-        <v>4.88</v>
+        <v>10.59</v>
       </c>
       <c r="K108">
-        <v>-5.46</v>
+        <v>10.69</v>
       </c>
       <c r="L108">
-        <v>-3.68</v>
+        <v>6.51</v>
       </c>
       <c r="M108">
-        <v>23.72</v>
+        <v>33.27</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>301378</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D109">
-        <v>64.36</v>
+        <v>65.25</v>
       </c>
       <c r="E109">
-        <v>66.8</v>
+        <v>63.72</v>
       </c>
       <c r="F109">
-        <v>72.2</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="G109">
-        <v>64.36</v>
+        <v>63.7</v>
       </c>
       <c r="H109">
-        <v>62305</v>
+        <v>40918</v>
       </c>
       <c r="I109">
-        <v>423609419</v>
+        <v>267257089</v>
       </c>
       <c r="J109">
-        <v>12.3</v>
+        <v>4.88</v>
       </c>
       <c r="K109">
-        <v>4.83</v>
+        <v>-5.46</v>
       </c>
       <c r="L109">
-        <v>3.08</v>
+        <v>-3.68</v>
       </c>
       <c r="M109">
-        <v>36.12</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>301378</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D110">
-        <v>64.5</v>
+        <v>64.36</v>
       </c>
       <c r="E110">
-        <v>60.9</v>
+        <v>66.8</v>
       </c>
       <c r="F110">
-        <v>66.8</v>
+        <v>72.2</v>
       </c>
       <c r="G110">
-        <v>58.47</v>
+        <v>64.36</v>
       </c>
       <c r="H110">
-        <v>45254</v>
+        <v>62305</v>
       </c>
       <c r="I110">
-        <v>286330189</v>
+        <v>423609419</v>
       </c>
       <c r="J110">
-        <v>12.47</v>
+        <v>12.3</v>
       </c>
       <c r="K110">
-        <v>-8.83</v>
+        <v>4.83</v>
       </c>
       <c r="L110">
-        <v>-5.9</v>
+        <v>3.08</v>
       </c>
       <c r="M110">
-        <v>26.23</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>301378</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>65.72</v>
+        <v>64.5</v>
       </c>
       <c r="E111">
-        <v>58.2</v>
+        <v>60.9</v>
       </c>
       <c r="F111">
-        <v>68.58</v>
+        <v>66.8</v>
       </c>
       <c r="G111">
-        <v>57.89</v>
+        <v>58.47</v>
       </c>
       <c r="H111">
-        <v>39066</v>
+        <v>45254</v>
       </c>
       <c r="I111">
-        <v>242763794</v>
+        <v>286330189</v>
       </c>
       <c r="J111">
-        <v>17.55</v>
+        <v>12.47</v>
       </c>
       <c r="K111">
-        <v>-4.43</v>
+        <v>-8.83</v>
       </c>
       <c r="L111">
-        <v>-2.7</v>
+        <v>-5.9</v>
       </c>
       <c r="M111">
-        <v>22.65</v>
+        <v>26.23</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>301378</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D112">
-        <v>57.13</v>
+        <v>65.72</v>
       </c>
       <c r="E112">
-        <v>61.18</v>
+        <v>58.2</v>
       </c>
       <c r="F112">
-        <v>61.79</v>
+        <v>68.58</v>
       </c>
       <c r="G112">
-        <v>56.5</v>
+        <v>57.89</v>
       </c>
       <c r="H112">
-        <v>26295</v>
+        <v>39066</v>
       </c>
       <c r="I112">
-        <v>158302927</v>
+        <v>242763794</v>
       </c>
       <c r="J112">
-        <v>9.09</v>
+        <v>17.55</v>
       </c>
       <c r="K112">
-        <v>5.12</v>
+        <v>-4.43</v>
       </c>
       <c r="L112">
-        <v>2.98</v>
+        <v>-2.7</v>
       </c>
       <c r="M112">
-        <v>15.24</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>301378</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D113">
-        <v>60.87</v>
+        <v>57.13</v>
       </c>
       <c r="E113">
-        <v>65.72</v>
+        <v>61.18</v>
       </c>
       <c r="F113">
-        <v>67.26000000000001</v>
+        <v>61.79</v>
       </c>
       <c r="G113">
-        <v>60.17</v>
+        <v>56.5</v>
       </c>
       <c r="H113">
-        <v>45914</v>
+        <v>26295</v>
       </c>
       <c r="I113">
-        <v>293218447</v>
+        <v>158302927</v>
       </c>
       <c r="J113">
-        <v>11.59</v>
+        <v>9.09</v>
       </c>
       <c r="K113">
-        <v>7.42</v>
+        <v>5.12</v>
       </c>
       <c r="L113">
-        <v>4.54</v>
+        <v>2.98</v>
       </c>
       <c r="M113">
-        <v>26.62</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>301378</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D114">
-        <v>64.40000000000001</v>
+        <v>60.87</v>
       </c>
       <c r="E114">
-        <v>62.65</v>
+        <v>65.72</v>
       </c>
       <c r="F114">
-        <v>64.40000000000001</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="G114">
-        <v>62.03</v>
+        <v>60.17</v>
       </c>
       <c r="H114">
-        <v>28980</v>
+        <v>45914</v>
       </c>
       <c r="I114">
-        <v>182745851</v>
+        <v>293218447</v>
       </c>
       <c r="J114">
-        <v>3.61</v>
+        <v>11.59</v>
       </c>
       <c r="K114">
-        <v>-4.67</v>
+        <v>7.42</v>
       </c>
       <c r="L114">
-        <v>-3.07</v>
+        <v>4.54</v>
       </c>
       <c r="M114">
-        <v>16.8</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>301378</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115">
-        <v>63.27</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E115">
-        <v>61.62</v>
+        <v>62.65</v>
       </c>
       <c r="F115">
-        <v>63.98</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G115">
-        <v>61.2</v>
+        <v>62.03</v>
       </c>
       <c r="H115">
-        <v>22901</v>
+        <v>28980</v>
       </c>
       <c r="I115">
-        <v>143148397</v>
+        <v>182745851</v>
       </c>
       <c r="J115">
-        <v>4.44</v>
+        <v>3.61</v>
       </c>
       <c r="K115">
-        <v>-1.64</v>
+        <v>-4.67</v>
       </c>
       <c r="L115">
-        <v>-1.03</v>
+        <v>-3.07</v>
       </c>
       <c r="M115">
-        <v>13.28</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>301378</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D116">
-        <v>62.36</v>
+        <v>63.27</v>
       </c>
       <c r="E116">
-        <v>61.9</v>
+        <v>61.62</v>
       </c>
       <c r="F116">
-        <v>62.36</v>
+        <v>63.98</v>
       </c>
       <c r="G116">
-        <v>60.3</v>
+        <v>61.2</v>
       </c>
       <c r="H116">
-        <v>16318</v>
+        <v>22901</v>
       </c>
       <c r="I116">
-        <v>99787691</v>
+        <v>143148397</v>
       </c>
       <c r="J116">
-        <v>3.34</v>
+        <v>4.44</v>
       </c>
       <c r="K116">
-        <v>0.45</v>
+        <v>-1.64</v>
       </c>
       <c r="L116">
-        <v>0.28</v>
+        <v>-1.03</v>
       </c>
       <c r="M116">
-        <v>9.460000000000001</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>301378</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>61.89</v>
+        <v>62.36</v>
       </c>
       <c r="E117">
-        <v>59.35</v>
+        <v>61.9</v>
       </c>
       <c r="F117">
-        <v>61.89</v>
+        <v>62.36</v>
       </c>
       <c r="G117">
-        <v>58.51</v>
+        <v>60.3</v>
       </c>
       <c r="H117">
-        <v>21377</v>
+        <v>16318</v>
       </c>
       <c r="I117">
-        <v>127417018</v>
+        <v>99787691</v>
       </c>
       <c r="J117">
-        <v>5.46</v>
+        <v>3.34</v>
       </c>
       <c r="K117">
-        <v>-4.12</v>
+        <v>0.45</v>
       </c>
       <c r="L117">
-        <v>-2.55</v>
+        <v>0.28</v>
       </c>
       <c r="M117">
-        <v>12.39</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>301378</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D118">
-        <v>58.98</v>
+        <v>61.89</v>
       </c>
       <c r="E118">
-        <v>59.16</v>
+        <v>59.35</v>
       </c>
       <c r="F118">
-        <v>59.48</v>
+        <v>61.89</v>
       </c>
       <c r="G118">
-        <v>57.8</v>
+        <v>58.51</v>
       </c>
       <c r="H118">
-        <v>10970</v>
+        <v>21377</v>
       </c>
       <c r="I118">
-        <v>64366899</v>
+        <v>127417018</v>
       </c>
       <c r="J118">
-        <v>2.83</v>
+        <v>5.46</v>
       </c>
       <c r="K118">
-        <v>-0.32</v>
+        <v>-4.12</v>
       </c>
       <c r="L118">
-        <v>-0.19</v>
+        <v>-2.55</v>
       </c>
       <c r="M118">
-        <v>6.36</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>301378</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119">
-        <v>58.78</v>
+        <v>58.98</v>
       </c>
       <c r="E119">
-        <v>58.19</v>
+        <v>59.16</v>
       </c>
       <c r="F119">
-        <v>59.87</v>
+        <v>59.48</v>
       </c>
       <c r="G119">
-        <v>58.08</v>
+        <v>57.8</v>
       </c>
       <c r="H119">
-        <v>11065</v>
+        <v>10970</v>
       </c>
       <c r="I119">
-        <v>65098596</v>
+        <v>64366899</v>
       </c>
       <c r="J119">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="K119">
-        <v>-1.64</v>
+        <v>-0.32</v>
       </c>
       <c r="L119">
-        <v>-0.97</v>
+        <v>-0.19</v>
       </c>
       <c r="M119">
-        <v>6.41</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>301378</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>57.77</v>
+        <v>58.78</v>
       </c>
       <c r="E120">
-        <v>57.6</v>
+        <v>58.19</v>
       </c>
       <c r="F120">
-        <v>58.6</v>
+        <v>59.87</v>
       </c>
       <c r="G120">
-        <v>57.35</v>
+        <v>58.08</v>
       </c>
       <c r="H120">
-        <v>9034</v>
+        <v>11065</v>
       </c>
       <c r="I120">
-        <v>52100437</v>
+        <v>65098596</v>
       </c>
       <c r="J120">
-        <v>2.15</v>
+        <v>3.03</v>
       </c>
       <c r="K120">
-        <v>-1.01</v>
+        <v>-1.64</v>
       </c>
       <c r="L120">
-        <v>-0.59</v>
+        <v>-0.97</v>
       </c>
       <c r="M120">
-        <v>5.24</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>301378</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D121">
-        <v>57.5</v>
+        <v>57.77</v>
       </c>
       <c r="E121">
-        <v>58.2</v>
+        <v>57.6</v>
       </c>
       <c r="F121">
-        <v>58.56</v>
+        <v>58.6</v>
       </c>
       <c r="G121">
-        <v>56.9</v>
+        <v>57.35</v>
       </c>
       <c r="H121">
-        <v>7815</v>
+        <v>9034</v>
       </c>
       <c r="I121">
-        <v>45225242</v>
+        <v>52100437</v>
       </c>
       <c r="J121">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="K121">
-        <v>1.04</v>
+        <v>-1.01</v>
       </c>
       <c r="L121">
-        <v>0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="M121">
-        <v>4.53</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>301378</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>58.07</v>
+        <v>57.5</v>
       </c>
       <c r="E122">
-        <v>57.24</v>
+        <v>58.2</v>
       </c>
       <c r="F122">
-        <v>58.38</v>
+        <v>58.56</v>
       </c>
       <c r="G122">
-        <v>57.22</v>
+        <v>56.9</v>
       </c>
       <c r="H122">
-        <v>8200</v>
+        <v>7815</v>
       </c>
       <c r="I122">
-        <v>47196941</v>
+        <v>45225242</v>
       </c>
       <c r="J122">
-        <v>1.99</v>
+        <v>2.88</v>
       </c>
       <c r="K122">
-        <v>-1.65</v>
+        <v>1.04</v>
       </c>
       <c r="L122">
-        <v>-0.96</v>
+        <v>0.6</v>
       </c>
       <c r="M122">
-        <v>4.75</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>301378</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>57.11</v>
+        <v>58.07</v>
       </c>
       <c r="E123">
-        <v>56.16</v>
+        <v>57.24</v>
       </c>
       <c r="F123">
-        <v>57.11</v>
+        <v>58.38</v>
       </c>
       <c r="G123">
-        <v>55.38</v>
+        <v>57.22</v>
       </c>
       <c r="H123">
-        <v>8589</v>
+        <v>8200</v>
       </c>
       <c r="I123">
-        <v>48158553</v>
+        <v>47196941</v>
       </c>
       <c r="J123">
-        <v>3.02</v>
+        <v>1.99</v>
       </c>
       <c r="K123">
-        <v>-1.89</v>
+        <v>-1.65</v>
       </c>
       <c r="L123">
-        <v>-1.08</v>
+        <v>-0.96</v>
       </c>
       <c r="M123">
-        <v>4.98</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>301378</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D124">
-        <v>56.1</v>
+        <v>57.11</v>
       </c>
       <c r="E124">
-        <v>54</v>
+        <v>56.16</v>
       </c>
       <c r="F124">
-        <v>56.1</v>
+        <v>57.11</v>
       </c>
       <c r="G124">
-        <v>53.88</v>
+        <v>55.38</v>
       </c>
       <c r="H124">
-        <v>8799</v>
+        <v>8589</v>
       </c>
       <c r="I124">
-        <v>48136239</v>
+        <v>48158553</v>
       </c>
       <c r="J124">
-        <v>3.95</v>
+        <v>3.02</v>
       </c>
       <c r="K124">
-        <v>-3.85</v>
+        <v>-1.89</v>
       </c>
       <c r="L124">
-        <v>-2.16</v>
+        <v>-1.08</v>
       </c>
       <c r="M124">
-        <v>5.1</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>301378</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>54.31</v>
+        <v>56.1</v>
       </c>
       <c r="E125">
-        <v>52.38</v>
+        <v>54</v>
       </c>
       <c r="F125">
-        <v>54.49</v>
+        <v>56.1</v>
       </c>
       <c r="G125">
-        <v>52.3</v>
+        <v>53.88</v>
       </c>
       <c r="H125">
-        <v>7405</v>
+        <v>8799</v>
       </c>
       <c r="I125">
-        <v>39392018</v>
+        <v>48136239</v>
       </c>
       <c r="J125">
-        <v>4.06</v>
+        <v>3.95</v>
       </c>
       <c r="K125">
-        <v>-3</v>
+        <v>-3.85</v>
       </c>
       <c r="L125">
-        <v>-1.62</v>
+        <v>-2.16</v>
       </c>
       <c r="M125">
-        <v>4.29</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>301378</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D126">
-        <v>52.33</v>
+        <v>54.31</v>
       </c>
       <c r="E126">
-        <v>52.1</v>
+        <v>52.38</v>
       </c>
       <c r="F126">
-        <v>52.83</v>
+        <v>54.49</v>
       </c>
       <c r="G126">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="H126">
-        <v>6863</v>
+        <v>7405</v>
       </c>
       <c r="I126">
-        <v>35957358</v>
+        <v>39392018</v>
       </c>
       <c r="J126">
-        <v>1.78</v>
+        <v>4.06</v>
       </c>
       <c r="K126">
-        <v>-0.53</v>
+        <v>-3</v>
       </c>
       <c r="L126">
-        <v>-0.28</v>
+        <v>-1.62</v>
       </c>
       <c r="M126">
-        <v>3.98</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>301378</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D127">
-        <v>51.86</v>
+        <v>52.33</v>
       </c>
       <c r="E127">
-        <v>50.68</v>
+        <v>52.1</v>
       </c>
       <c r="F127">
-        <v>52.08</v>
+        <v>52.83</v>
       </c>
       <c r="G127">
-        <v>50.58</v>
+        <v>51.9</v>
       </c>
       <c r="H127">
-        <v>7785</v>
+        <v>6863</v>
       </c>
       <c r="I127">
-        <v>39692436</v>
+        <v>35957358</v>
       </c>
       <c r="J127">
-        <v>2.88</v>
+        <v>1.78</v>
       </c>
       <c r="K127">
-        <v>-2.73</v>
+        <v>-0.53</v>
       </c>
       <c r="L127">
-        <v>-1.42</v>
+        <v>-0.28</v>
       </c>
       <c r="M127">
-        <v>4.51</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>301378</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>50.72</v>
+        <v>51.86</v>
       </c>
       <c r="E128">
-        <v>50.3</v>
+        <v>50.68</v>
       </c>
       <c r="F128">
-        <v>51.35</v>
+        <v>52.08</v>
       </c>
       <c r="G128">
-        <v>50.24</v>
+        <v>50.58</v>
       </c>
       <c r="H128">
-        <v>3958</v>
+        <v>7785</v>
       </c>
       <c r="I128">
-        <v>20068100</v>
+        <v>39692436</v>
       </c>
       <c r="J128">
-        <v>2.19</v>
+        <v>2.88</v>
       </c>
       <c r="K128">
-        <v>-0.75</v>
+        <v>-2.73</v>
       </c>
       <c r="L128">
-        <v>-0.38</v>
+        <v>-1.42</v>
       </c>
       <c r="M128">
-        <v>2.29</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B129">
+        <v>301378</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>50.22</v>
+        <v>50.72</v>
       </c>
       <c r="E129">
-        <v>50.39</v>
+        <v>50.3</v>
       </c>
       <c r="F129">
-        <v>51.11</v>
+        <v>51.35</v>
       </c>
       <c r="G129">
-        <v>50.12</v>
+        <v>50.24</v>
       </c>
       <c r="H129">
-        <v>4631</v>
+        <v>3958</v>
       </c>
       <c r="I129">
-        <v>23423810</v>
+        <v>20068100</v>
       </c>
       <c r="J129">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="K129">
-        <v>0.18</v>
+        <v>-0.75</v>
       </c>
       <c r="L129">
-        <v>0.09</v>
+        <v>-0.38</v>
       </c>
       <c r="M129">
-        <v>2.68</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>301378</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D130">
-        <v>50.3</v>
+        <v>50.22</v>
       </c>
       <c r="E130">
-        <v>51.88</v>
+        <v>50.39</v>
       </c>
       <c r="F130">
-        <v>52.67</v>
+        <v>51.11</v>
       </c>
       <c r="G130">
-        <v>49.99</v>
+        <v>50.12</v>
       </c>
       <c r="H130">
-        <v>8992</v>
+        <v>4631</v>
       </c>
       <c r="I130">
-        <v>46342180</v>
+        <v>23423810</v>
       </c>
       <c r="J130">
-        <v>5.32</v>
+        <v>1.97</v>
       </c>
       <c r="K130">
-        <v>2.96</v>
+        <v>0.18</v>
       </c>
       <c r="L130">
-        <v>1.49</v>
+        <v>0.09</v>
       </c>
       <c r="M130">
-        <v>5.21</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>301378</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>51.8</v>
+        <v>50.3</v>
       </c>
       <c r="E131">
-        <v>52.3</v>
+        <v>51.88</v>
       </c>
       <c r="F131">
-        <v>52.61</v>
+        <v>52.67</v>
       </c>
       <c r="G131">
-        <v>51.58</v>
+        <v>49.99</v>
       </c>
       <c r="H131">
-        <v>7179</v>
+        <v>8992</v>
       </c>
       <c r="I131">
-        <v>37386827</v>
+        <v>46342180</v>
       </c>
       <c r="J131">
-        <v>1.99</v>
+        <v>5.32</v>
       </c>
       <c r="K131">
-        <v>0.8100000000000001</v>
+        <v>2.96</v>
       </c>
       <c r="L131">
-        <v>0.42</v>
+        <v>1.49</v>
       </c>
       <c r="M131">
-        <v>4.16</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>301378</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>52.29</v>
+        <v>51.8</v>
       </c>
       <c r="E132">
-        <v>52.99</v>
+        <v>52.3</v>
       </c>
       <c r="F132">
-        <v>53.39</v>
+        <v>52.61</v>
       </c>
       <c r="G132">
-        <v>51.52</v>
+        <v>51.58</v>
       </c>
       <c r="H132">
-        <v>11322</v>
+        <v>7179</v>
       </c>
       <c r="I132">
-        <v>59795461</v>
+        <v>37386827</v>
       </c>
       <c r="J132">
-        <v>3.58</v>
+        <v>1.99</v>
       </c>
       <c r="K132">
-        <v>1.32</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L132">
-        <v>0.6899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="M132">
-        <v>6.56</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B133">
+        <v>301378</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>52.46</v>
+        <v>52.29</v>
       </c>
       <c r="E133">
-        <v>51.97</v>
+        <v>52.99</v>
       </c>
       <c r="F133">
-        <v>53.2</v>
+        <v>53.39</v>
       </c>
       <c r="G133">
-        <v>51.9</v>
+        <v>51.52</v>
       </c>
       <c r="H133">
-        <v>5356</v>
+        <v>11322</v>
       </c>
       <c r="I133">
-        <v>28198509</v>
+        <v>59795461</v>
       </c>
       <c r="J133">
-        <v>2.45</v>
+        <v>3.58</v>
       </c>
       <c r="K133">
-        <v>-1.92</v>
+        <v>1.32</v>
       </c>
       <c r="L133">
-        <v>-1.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>301378</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D134">
-        <v>52.79</v>
+        <v>52.46</v>
       </c>
       <c r="E134">
-        <v>52.22</v>
+        <v>51.97</v>
       </c>
       <c r="F134">
-        <v>52.79</v>
+        <v>53.2</v>
       </c>
       <c r="G134">
-        <v>52.01</v>
+        <v>51.9</v>
       </c>
       <c r="H134">
-        <v>3741</v>
+        <v>5356</v>
       </c>
       <c r="I134">
-        <v>19576669</v>
+        <v>28198509</v>
       </c>
       <c r="J134">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="K134">
-        <v>0.48</v>
+        <v>-1.92</v>
       </c>
       <c r="L134">
-        <v>0.25</v>
+        <v>-1.02</v>
       </c>
       <c r="M134">
-        <v>2.17</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B135">
+        <v>301378</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D135">
-        <v>52.23</v>
+        <v>52.79</v>
       </c>
       <c r="E135">
-        <v>51.89</v>
+        <v>52.22</v>
       </c>
       <c r="F135">
-        <v>52.55</v>
+        <v>52.79</v>
       </c>
       <c r="G135">
-        <v>51.2</v>
+        <v>52.01</v>
       </c>
       <c r="H135">
-        <v>3755</v>
+        <v>3741</v>
       </c>
       <c r="I135">
-        <v>19417594</v>
+        <v>19576669</v>
       </c>
       <c r="J135">
-        <v>2.59</v>
+        <v>1.5</v>
       </c>
       <c r="K135">
-        <v>-0.63</v>
+        <v>0.48</v>
       </c>
       <c r="L135">
-        <v>-0.33</v>
+        <v>0.25</v>
       </c>
       <c r="M135">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>301378</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D136">
-        <v>51.97</v>
+        <v>52.23</v>
       </c>
       <c r="E136">
-        <v>51.44</v>
+        <v>51.89</v>
       </c>
       <c r="F136">
-        <v>52.16</v>
+        <v>52.55</v>
       </c>
       <c r="G136">
-        <v>51.26</v>
+        <v>51.2</v>
       </c>
       <c r="H136">
-        <v>4014</v>
+        <v>3755</v>
       </c>
       <c r="I136">
-        <v>20763368</v>
+        <v>19417594</v>
       </c>
       <c r="J136">
-        <v>1.73</v>
+        <v>2.59</v>
       </c>
       <c r="K136">
-        <v>-0.87</v>
+        <v>-0.63</v>
       </c>
       <c r="L136">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
       <c r="M136">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B137">
+        <v>301378</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D137">
-        <v>51.41</v>
+        <v>51.97</v>
       </c>
       <c r="E137">
-        <v>52.57</v>
+        <v>51.44</v>
       </c>
       <c r="F137">
-        <v>52.96</v>
+        <v>52.16</v>
       </c>
       <c r="G137">
-        <v>50.88</v>
+        <v>51.26</v>
       </c>
       <c r="H137">
-        <v>7276</v>
+        <v>4014</v>
       </c>
       <c r="I137">
-        <v>38015540</v>
+        <v>20763368</v>
       </c>
       <c r="J137">
-        <v>4.04</v>
+        <v>1.73</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>-0.87</v>
       </c>
       <c r="L137">
-        <v>1.13</v>
+        <v>-0.45</v>
       </c>
       <c r="M137">
-        <v>4.22</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B138">
+        <v>301378</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D138">
-        <v>52.56</v>
+        <v>51.41</v>
       </c>
       <c r="E138">
-        <v>52.29</v>
+        <v>52.57</v>
       </c>
       <c r="F138">
-        <v>53</v>
+        <v>52.96</v>
       </c>
       <c r="G138">
-        <v>52.14</v>
+        <v>50.88</v>
       </c>
       <c r="H138">
-        <v>4247</v>
+        <v>7276</v>
       </c>
       <c r="I138">
-        <v>22276624</v>
+        <v>38015540</v>
       </c>
       <c r="J138">
-        <v>1.64</v>
+        <v>4.04</v>
       </c>
       <c r="K138">
-        <v>-0.53</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>-0.28</v>
+        <v>1.13</v>
       </c>
       <c r="M138">
-        <v>2.46</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>301378</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D139">
-        <v>52.3</v>
+        <v>52.56</v>
       </c>
       <c r="E139">
-        <v>51.17</v>
+        <v>52.29</v>
       </c>
       <c r="F139">
-        <v>52.31</v>
+        <v>53</v>
       </c>
       <c r="G139">
-        <v>50.82</v>
+        <v>52.14</v>
       </c>
       <c r="H139">
-        <v>6480</v>
+        <v>4247</v>
       </c>
       <c r="I139">
-        <v>33288941</v>
+        <v>22276624</v>
       </c>
       <c r="J139">
-        <v>2.85</v>
+        <v>1.64</v>
       </c>
       <c r="K139">
-        <v>-2.14</v>
+        <v>-0.53</v>
       </c>
       <c r="L139">
-        <v>-1.12</v>
+        <v>-0.28</v>
       </c>
       <c r="M139">
-        <v>3.76</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>301378</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D140">
+        <v>52.3</v>
+      </c>
+      <c r="E140">
         <v>51.17</v>
       </c>
-      <c r="E140">
-        <v>50.31</v>
-      </c>
       <c r="F140">
-        <v>51.5</v>
+        <v>52.31</v>
       </c>
       <c r="G140">
-        <v>49.82</v>
+        <v>50.82</v>
       </c>
       <c r="H140">
-        <v>4304</v>
+        <v>6480</v>
       </c>
       <c r="I140">
-        <v>21726630</v>
+        <v>33288941</v>
       </c>
       <c r="J140">
-        <v>3.28</v>
+        <v>2.85</v>
       </c>
       <c r="K140">
-        <v>-1.68</v>
+        <v>-2.14</v>
       </c>
       <c r="L140">
-        <v>-0.86</v>
+        <v>-1.12</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>301378</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D141">
-        <v>50.21</v>
+        <v>51.17</v>
       </c>
       <c r="E141">
-        <v>50.65</v>
+        <v>50.31</v>
       </c>
       <c r="F141">
-        <v>50.89</v>
+        <v>51.5</v>
       </c>
       <c r="G141">
-        <v>49.9</v>
+        <v>49.82</v>
       </c>
       <c r="H141">
-        <v>3896</v>
+        <v>4304</v>
       </c>
       <c r="I141">
-        <v>19636184</v>
+        <v>21726630</v>
       </c>
       <c r="J141">
-        <v>1.97</v>
+        <v>3.28</v>
       </c>
       <c r="K141">
-        <v>0.68</v>
+        <v>-1.68</v>
       </c>
       <c r="L141">
-        <v>0.34</v>
+        <v>-0.86</v>
       </c>
       <c r="M141">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <v>301378</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D142">
-        <v>50.45</v>
+        <v>50.21</v>
       </c>
       <c r="E142">
-        <v>48.99</v>
+        <v>50.65</v>
       </c>
       <c r="F142">
-        <v>50.45</v>
+        <v>50.89</v>
       </c>
       <c r="G142">
-        <v>48.7</v>
+        <v>49.9</v>
       </c>
       <c r="H142">
-        <v>5586</v>
+        <v>3896</v>
       </c>
       <c r="I142">
-        <v>27499947</v>
+        <v>19636184</v>
       </c>
       <c r="J142">
-        <v>3.46</v>
+        <v>1.97</v>
       </c>
       <c r="K142">
-        <v>-3.28</v>
+        <v>0.68</v>
       </c>
       <c r="L142">
-        <v>-1.66</v>
+        <v>0.34</v>
       </c>
       <c r="M142">
-        <v>3.24</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>301378</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D143">
-        <v>48.89</v>
+        <v>50.45</v>
       </c>
       <c r="E143">
-        <v>49.18</v>
+        <v>48.99</v>
       </c>
       <c r="F143">
-        <v>50.17</v>
+        <v>50.45</v>
       </c>
       <c r="G143">
-        <v>48.01</v>
+        <v>48.7</v>
       </c>
       <c r="H143">
-        <v>5246</v>
+        <v>5586</v>
       </c>
       <c r="I143">
-        <v>26010537</v>
+        <v>27499947</v>
       </c>
       <c r="J143">
-        <v>4.41</v>
+        <v>3.46</v>
       </c>
       <c r="K143">
-        <v>0.39</v>
+        <v>-3.28</v>
       </c>
       <c r="L143">
-        <v>0.19</v>
+        <v>-1.66</v>
       </c>
       <c r="M143">
-        <v>3.04</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>301378</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D144">
+        <v>48.89</v>
+      </c>
+      <c r="E144">
         <v>49.18</v>
       </c>
-      <c r="E144">
-        <v>47.99</v>
-      </c>
       <c r="F144">
-        <v>49.47</v>
+        <v>50.17</v>
       </c>
       <c r="G144">
-        <v>47.82</v>
+        <v>48.01</v>
       </c>
       <c r="H144">
-        <v>4730</v>
+        <v>5246</v>
       </c>
       <c r="I144">
-        <v>22864593</v>
+        <v>26010537</v>
       </c>
       <c r="J144">
-        <v>3.36</v>
+        <v>4.41</v>
       </c>
       <c r="K144">
-        <v>-2.42</v>
+        <v>0.39</v>
       </c>
       <c r="L144">
-        <v>-1.19</v>
+        <v>0.19</v>
       </c>
       <c r="M144">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>301378</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D145">
-        <v>48.2</v>
+        <v>49.18</v>
       </c>
       <c r="E145">
-        <v>47.6</v>
+        <v>47.99</v>
       </c>
       <c r="F145">
-        <v>48.2</v>
+        <v>49.47</v>
       </c>
       <c r="G145">
-        <v>46.3</v>
+        <v>47.82</v>
       </c>
       <c r="H145">
-        <v>6013</v>
+        <v>4730</v>
       </c>
       <c r="I145">
-        <v>28360946</v>
+        <v>22864593</v>
       </c>
       <c r="J145">
-        <v>3.96</v>
+        <v>3.36</v>
       </c>
       <c r="K145">
-        <v>-0.8100000000000001</v>
+        <v>-2.42</v>
       </c>
       <c r="L145">
-        <v>-0.39</v>
+        <v>-1.19</v>
       </c>
       <c r="M145">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>301378</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D146">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="E146">
-        <v>48.86</v>
+        <v>47.6</v>
       </c>
       <c r="F146">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="G146">
-        <v>47.06</v>
+        <v>46.3</v>
       </c>
       <c r="H146">
-        <v>4513</v>
+        <v>6013</v>
       </c>
       <c r="I146">
-        <v>21847812</v>
+        <v>28360946</v>
       </c>
       <c r="J146">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="K146">
-        <v>2.65</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="L146">
-        <v>1.26</v>
+        <v>-0.39</v>
       </c>
       <c r="M146">
-        <v>2.62</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>301378</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D147">
+        <v>47.9</v>
+      </c>
+      <c r="E147">
+        <v>48.86</v>
+      </c>
+      <c r="F147">
         <v>49</v>
       </c>
-      <c r="E147">
-        <v>49.39</v>
-      </c>
-      <c r="F147">
-        <v>50.12</v>
-      </c>
       <c r="G147">
-        <v>49</v>
+        <v>47.06</v>
       </c>
       <c r="H147">
-        <v>4733</v>
+        <v>4513</v>
       </c>
       <c r="I147">
-        <v>23459734</v>
+        <v>21847812</v>
       </c>
       <c r="J147">
-        <v>2.29</v>
+        <v>4.08</v>
       </c>
       <c r="K147">
-        <v>1.08</v>
+        <v>2.65</v>
       </c>
       <c r="L147">
-        <v>0.53</v>
+        <v>1.26</v>
       </c>
       <c r="M147">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>301378</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D148">
-        <v>48.88</v>
+        <v>49</v>
       </c>
       <c r="E148">
-        <v>50.4</v>
+        <v>49.39</v>
       </c>
       <c r="F148">
-        <v>50.46</v>
+        <v>50.12</v>
       </c>
       <c r="G148">
-        <v>48.88</v>
+        <v>49</v>
       </c>
       <c r="H148">
-        <v>6397</v>
+        <v>4733</v>
       </c>
       <c r="I148">
-        <v>31976779</v>
+        <v>23459734</v>
       </c>
       <c r="J148">
-        <v>3.2</v>
+        <v>2.29</v>
       </c>
       <c r="K148">
-        <v>2.04</v>
+        <v>1.08</v>
       </c>
       <c r="L148">
-        <v>1.01</v>
+        <v>0.53</v>
       </c>
       <c r="M148">
-        <v>3.71</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>301378</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D149">
-        <v>49.3</v>
+        <v>48.88</v>
       </c>
       <c r="E149">
-        <v>47.88</v>
+        <v>50.4</v>
       </c>
       <c r="F149">
-        <v>49.78</v>
+        <v>50.46</v>
       </c>
       <c r="G149">
-        <v>46.9</v>
+        <v>48.88</v>
       </c>
       <c r="H149">
-        <v>16515</v>
+        <v>6397</v>
       </c>
       <c r="I149">
-        <v>79281877</v>
+        <v>31976779</v>
       </c>
       <c r="J149">
-        <v>5.71</v>
+        <v>3.2</v>
       </c>
       <c r="K149">
-        <v>-5</v>
+        <v>2.04</v>
       </c>
       <c r="L149">
-        <v>-2.52</v>
+        <v>1.01</v>
       </c>
       <c r="M149">
-        <v>9.57</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>301378</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D150">
-        <v>47.65</v>
+        <v>49.3</v>
       </c>
       <c r="E150">
-        <v>47.83</v>
+        <v>47.88</v>
       </c>
       <c r="F150">
-        <v>48</v>
+        <v>49.78</v>
       </c>
       <c r="G150">
-        <v>46.81</v>
+        <v>46.9</v>
       </c>
       <c r="H150">
-        <v>7024</v>
+        <v>16515</v>
       </c>
       <c r="I150">
-        <v>33364666</v>
+        <v>79281877</v>
       </c>
       <c r="J150">
-        <v>2.49</v>
+        <v>5.71</v>
       </c>
       <c r="K150">
-        <v>-0.1</v>
+        <v>-5</v>
       </c>
       <c r="L150">
-        <v>-0.05</v>
+        <v>-2.52</v>
       </c>
       <c r="M150">
-        <v>4.07</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>301378</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D151">
-        <v>47.72</v>
+        <v>47.65</v>
       </c>
       <c r="E151">
-        <v>48.58</v>
+        <v>47.83</v>
       </c>
       <c r="F151">
-        <v>48.66</v>
+        <v>48</v>
       </c>
       <c r="G151">
-        <v>47.68</v>
+        <v>46.81</v>
       </c>
       <c r="H151">
-        <v>7834</v>
+        <v>7024</v>
       </c>
       <c r="I151">
-        <v>37828601</v>
+        <v>33364666</v>
       </c>
       <c r="J151">
-        <v>2.05</v>
+        <v>2.49</v>
       </c>
       <c r="K151">
-        <v>1.57</v>
+        <v>-0.1</v>
       </c>
       <c r="L151">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
       <c r="M151">
-        <v>4.54</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>301378</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D152">
+        <v>47.72</v>
+      </c>
+      <c r="E152">
         <v>48.58</v>
       </c>
-      <c r="E152">
-        <v>47.89</v>
-      </c>
       <c r="F152">
-        <v>49.02</v>
+        <v>48.66</v>
       </c>
       <c r="G152">
-        <v>47.76</v>
+        <v>47.68</v>
       </c>
       <c r="H152">
-        <v>6174</v>
+        <v>7834</v>
       </c>
       <c r="I152">
-        <v>29682267</v>
+        <v>37828601</v>
       </c>
       <c r="J152">
-        <v>2.59</v>
+        <v>2.05</v>
       </c>
       <c r="K152">
-        <v>-1.42</v>
+        <v>1.57</v>
       </c>
       <c r="L152">
-        <v>-0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="M152">
-        <v>3.58</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>301378</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D153">
-        <v>48.1</v>
+        <v>48.58</v>
       </c>
       <c r="E153">
-        <v>46.53</v>
+        <v>47.89</v>
       </c>
       <c r="F153">
-        <v>48.29</v>
+        <v>49.02</v>
       </c>
       <c r="G153">
-        <v>46.52</v>
+        <v>47.76</v>
       </c>
       <c r="H153">
-        <v>5911</v>
+        <v>6174</v>
       </c>
       <c r="I153">
-        <v>27796447</v>
+        <v>29682267</v>
       </c>
       <c r="J153">
-        <v>3.7</v>
+        <v>2.59</v>
       </c>
       <c r="K153">
-        <v>-2.84</v>
+        <v>-1.42</v>
       </c>
       <c r="L153">
-        <v>-1.36</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="M153">
-        <v>3.43</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B154">
+        <v>301378</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D154">
+        <v>48.1</v>
+      </c>
+      <c r="E154">
+        <v>46.53</v>
+      </c>
+      <c r="F154">
+        <v>48.29</v>
+      </c>
+      <c r="G154">
+        <v>46.52</v>
+      </c>
+      <c r="H154">
+        <v>5911</v>
+      </c>
+      <c r="I154">
+        <v>27796447</v>
+      </c>
+      <c r="J154">
+        <v>3.7</v>
+      </c>
+      <c r="K154">
+        <v>-2.84</v>
+      </c>
+      <c r="L154">
+        <v>-1.36</v>
+      </c>
+      <c r="M154">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155">
+        <v>301378</v>
+      </c>
+      <c r="C155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D155">
         <v>46.91</v>
       </c>
-      <c r="E154">
+      <c r="E155">
         <v>47.79</v>
       </c>
-      <c r="F154">
+      <c r="F155">
         <v>48.14</v>
       </c>
-      <c r="G154">
+      <c r="G155">
         <v>46.6</v>
       </c>
-      <c r="H154">
+      <c r="H155">
         <v>5554</v>
       </c>
-      <c r="I154">
+      <c r="I155">
         <v>26472959.37</v>
       </c>
-      <c r="J154">
+      <c r="J155">
         <v>3.31</v>
       </c>
-      <c r="K154">
+      <c r="K155">
         <v>2.71</v>
       </c>
-      <c r="L154">
+      <c r="L155">
         <v>1.26</v>
       </c>
-      <c r="M154">
+      <c r="M155">
         <v>3.22</v>
       </c>
     </row>
